--- a/期中测试/数据表/boss直聘-测试.xlsx
+++ b/期中测试/数据表/boss直聘-测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="510">
   <si>
     <t>securityId</t>
   </si>
@@ -154,367 +154,379 @@
     <t>contact</t>
   </si>
   <si>
-    <t>3qsJFh-EfCDVZ-O1FwHF6CgiZSmJ5VnY4c77CFJc4913spQH1mxSYKrMtuwScfIjhynF_rSkW6fcJNjzh4zjuaMPlTJOkQMlhVZpF-rq4TVzbSoNBIDv_pGyxcrCtjFwgGlqmC07ot2BBWOBocAhdeRk0zX78rrTveeHHaKrG0RYzUiCQw~~</t>
-  </si>
-  <si>
-    <t>T2BuiC3HIXwLa-A1oX79gxEdeOP7RlDJL7G9iNj54hD3G9YGHW1szffzFDd2EXG2cwD0hxb_qfRNhfVR8nVOWQ9ux0XJ6XeZkyb46Oo5B52gREbr7Uw4m2GGoevCqw8XCbC87ahJTgXKa2BePLc81jqdrNcekT_IwBrywiHE2Es-8A~~</t>
-  </si>
-  <si>
-    <t>svnQCWO20Xbxv-u16uuTpJab0Zav_AzYqZCfE4f-1ZNMQm5oLkyeitmv76OHQTIZq2HQEKS8MQjnUrss4l10QL3oV-ufrnTzO8JwOPPyvNMWOjuJmVNp3ffWQpGXwfXa2ac93uu7vXjsDpOFfg_-3Lqf26EYWYU6NMvcVdWOsKHFHr_h</t>
-  </si>
-  <si>
-    <t>5HFzjewox7k90-G1C1XMX5TH6b_FFoNK8Z-YZzMALeadG_IaZfkiGDHb1Q2w49f4Fq8fKk5JZY-UT-UDTgZOae9kzv3KTH5AYvJuc-6HxeVyVWeM6-yGyCY3j-k_rtCiGoCzC9tVwGxe88O_FMM_pHPOb2AMS-MES-7-Rp5muANnE7E~</t>
-  </si>
-  <si>
-    <t>xcygccKJO4vmE-31rgveutlo-FTMTAPCCr3_cJQzJVBGT54XWXfo3VgudnPqJkbN0KEHcgkcXuEUXZtkxEFQnI0P8aOuXKSU-_8nis0qRah0PiXkmWQr6uIzvW-i7pQodL0m3bY7HjgYKD5BeMVq-lS45MJFHdQKl2qiyXQNzizq6WY~</t>
-  </si>
-  <si>
-    <t>Q6k0obuXVjej_-K1QNax25xEkwtUdVhfX7us62-U4URheQvMYVQOTUYpkgKkUxOucUjvdN37fR97OkOHTQl_9xFNURtTfbrq2ev3V6GmOmpzyJdoqabifsa_O-p_6x1IzvkhLGnmmK23Coy21C2VjhKNNPQKbEr3i_d6PSPvJxkw</t>
-  </si>
-  <si>
-    <t>f6nj5jU5IY6No-11Rcch3C3q08KozCrwjnLcr5Ii0_oZr5CzEJMGWJD9BrdQ7Or18jL4-1NEIGoxZkZ1LZF-9avUl1OHYehPC_3KlcIb-renO85bdunwDQ4Zcjj9KWO22Mdbm1ne_GEoAIF0mL1u0vjkkfP3OAQDw67CNfMqTtwMBe4u3A~~</t>
-  </si>
-  <si>
-    <t>dqtb7WuK0xFhe-d1ExCfqeuBdhJLXPC0l1I2XSMmk5QTJUiLYn3VQCo3sJs1l3A5NTQdcHMmbGsgvgiQ0perIcI7aQYrL_MKy7OlHuKHvNsf4SJLSSZZ6wtwbnW5D56FSSPwNMH-Rw~~</t>
-  </si>
-  <si>
-    <t>2l5pn4nHPDrNS-518v0z7iHETjhMca_hUjj09cio7xZ9UJQ654bjvsjXNRWeXLpaLB4_pllcI5gXnWmavKtlkEI0TfC2oNUwmkhKzoXHxP7pQyAsnAz4Sz-9H_gbuRgHDc9VNPGF5P2ONYj9oPuAJHvBzTkaJTjyL_cKpkxm</t>
-  </si>
-  <si>
-    <t>a5p0C84PBFQVK-T1ZjM7aaaMYfsACM2zi1IYyLhBmRFCQcKcRh6rbbIjYRj5PsgHsE1n9gMq-bzmS9Px7Oxprjp4PQZwaK5mXeW6GJprj1DOA1CXwXqIYqxh0Wv9MK3Qg-LnHfiTI2xCQoERCA1wuC5rT6GyJ9gJxZKF7RqHGnNC6dKZ</t>
-  </si>
-  <si>
-    <t>ZRKbicdo0l991-D1yI_5Bd0cWKjsux7oZUNeZDla4GU2pelZ5lV0GJmTe3SSQKusQ-xlPVz23UmpnHBwdb3PIa4-w6oilEetg_YLiJiNVKxTlYYFev0R_LrCK4Wi41VNAYhR34VOoStc8g~~</t>
-  </si>
-  <si>
-    <t>jorBkt2zeGjeQ-x1hbAFZlD3UeowB3V5wEqtf0DTuOoYGEa2miaSpd-S9vSNuxyToU1wtAZqonD23VJZR4WU9DpnPLtLmd3w5ZQdjedjIdaDmjXAbOxQPGaAaHdO6-SyXjtjXwvJcc48BrTy_GSxONG3c4MA0z-OQHhrB832sLib</t>
-  </si>
-  <si>
-    <t>Ur9jxOpJsIOEL-E1JPZ32RFrbcKt7t5ypsay6ReHbreVDwkvZoysjtJjtmZkDphCRslVig3pKv_HXvRsc9RwkbITGYpPZa5zVWMYOCsfRhkTp-C7fp7aq40kH4bDQRW67mXU8JdD4yZN7BCJ-Xn2SPVwdLwI6LlUXxxVcEbFD5SonF-1</t>
-  </si>
-  <si>
-    <t>TTwMnxxS41HlC-91PsdLg2AjAgibZsIHZ1-V3DXuFXY_5xLeMxP_MSo_u4vrDGb2X0Nzg-R1BaH5ThYo-kvtIzwG7Zc8CbfLtCKfDEwcKIObNSK_mn5n3zoxL-EgnYUDCcRhJdSFZl2_PoXB4VrcZQeN7dfGyTG8hti_t7byAuLN_Q~~</t>
-  </si>
-  <si>
-    <t>2Aeq3Pqif3rs2-W1aEbGJUkzamYN9iL41ndiz8SD0BS2k6afmE2c5_gkXqhQYjwpTV9c_zhr0woTXkiBtuG-1Cm7ZV-tajgpAaRBQ0wo8mCommjy8xoqzy0DH2fGz3JtZGt0Tirh8uqFFIP1d5jrXVBSBC5HemVnaTDn6UQM7b8Gvg~~</t>
-  </si>
-  <si>
-    <t>Y5w6n0AGGYjMH-r133croF2OiWXMFDjdv5oEzntl0Ov2gxLjQ8nlIPlw7tJ__V0KXMpx-tGjghZoXQK125qj2VcVoKQ-TEyipdyjuuSRnB_LiZnvw_SXysb91cY4k-RbC40OgRnYgKvKtq82Dsw8yp9Zyp8ZOeOCHGWA_41vBg_O</t>
-  </si>
-  <si>
-    <t>y7mu24vu_lcS9-81MIMQ6s-zx1QReDZ_AP8qZzUpFAgURqoTtWNAFVzKXzQAR5YrA7LROY-eLe1nZV9734ICZgdr_u64thjMS5lgeeoCCyw7S8Ku0MkfNhJrw1ELs426bGX5aV6I</t>
-  </si>
-  <si>
-    <t>8p1Blz4AzauNw-C1mygD56PeuS32XYMJ6KgP-wibMjIJOxNYiFQbwLxk3xhFoLNcbFZa_OEzab7X3PIM7TbhTMJjVJTAT53RzP1DQlnUo_bAqIzJN8gKlY6JwRhxHYZhdb-Qoe1J8gVK</t>
-  </si>
-  <si>
-    <t>isLcyRnQ2SLao-v1zxE-E30xDVzxWEKu2TDC1-5uzGe51bFbdnRUXEWpA6guE_QrI-JVC3bY1zYtPE8ZWb155qXknYoXykF9LynnSB463pCMLzo1e4ewF1hub7oJNl1U3ZaaAEN27zmm_u_6POjZB2f88Ve451RerB0zmJmKz4jBFw~~</t>
-  </si>
-  <si>
-    <t>oyHI81-WEWjnP-U1EKm50i93OcjqfqajMtLo_EteED-bNy1uWW_722EwC3mzXFTAWuK24YsuwWAsJs2kObBVyw_rsCAdOu972FJTwK0-2Sc3YUFmOibT9YqFD1yaOoLe-wYmnE8NoLrpFHwDeEBXkh1cZnLHkV11lRjxUu1FsJiZ</t>
-  </si>
-  <si>
-    <t>JHeB8nYJGZHvW-q1VoaNUHNTgbnIeAMWkHa7WXrG20c9mi3qYNyFQd7ThIyUujipxqjLD78NclZBceTBncUV2rMZPk1pqAeFeqXqaLGRRk_coOJPkxUqqu9J48IOokrIKSLY-udHzMbkEXMWTsVZFeQNmz5laXx3gylcFQLkPho5k1Q~</t>
-  </si>
-  <si>
-    <t>YDbMQG-AddkCJ-A1wyxs0FwprjbvcBW9ZLxicEiDBmGnbENymsIMryLwWd5j17Rbgn1czNo5n4fGp2pwolLh7q8vHD_RlEmckbK2QlpQ3S3E3FclNm-P9RYGJZQvkFbcSVfAwnv6RTt_fGWH_6vQbjF5T96wvj1oEXGOZ3kdjs7rrA~~</t>
-  </si>
-  <si>
-    <t>v9rKAve23BpiA-X17PGYVqM3kC4bKrfbwcxx5EtZrCq6Dp4lgk7gbV0M7mpBbU6vdqHgqwY1mC9583bgQ85IwlusOAWHmvDiulhwcQSpWEMqiUTqYfKOfyJz9JPWkxMgjVf_uGAKloq8ZdraEe9xzDpq-jy1A_vKBIN-dHmbS0GGK8zV</t>
-  </si>
-  <si>
-    <t>GKX9FyIXWkdtH-M1fP3J9DJBjMlIdhY4Da3uyL3I5LNCjNrpQyEK3JAysZILcWlJbyoDj4D2Sfl2XlOqRwOIMXnhNMzf1liaNWJrEWrH6OiZIRYLhNFfXUtWMe7ly_4hg6ZrJtMRCwK0D_cjM-fG5noU89lT93hbcF_iz0EfPc9o8qPzeA~~</t>
-  </si>
-  <si>
-    <t>wjXU9CaL0bRLc-R1y3XFDV-GTR7xGaCMUMimNvUdQJninVK0HFk01jJyfqXppcfxuS0ckfqwbP8GKg0XXPGlUMMRtb5F17ThNLy1hQXV2Xc6nK0M9taNGq3OFSn_MpBmYsmWpzdCUdo~</t>
-  </si>
-  <si>
-    <t>HxtVvh1vaqAdg-p1XH2XNTgwVL8y4kG_fYTZW0d7CpgpS5PgQ42BuefjWDAg9nhn0fNnFI2mJqGcWQBeAzQtPwiUQJxbhUue2lWZDAnSN7QxintSdkTebQF_f6Z-4QVoTVmDQ4-mVJHhnwH86lH4Cri3fzhc32Kn6-YeBBKobgxy5KFp</t>
-  </si>
-  <si>
-    <t>klyu5e9YjmSQQ-f1Z4xrd5CMHCaPHUDwfCPU2Ii2gUEZAQz3Jya4_ei2NxdqMjvmFqRddIB6bwi_Kn6-eun8yJ0H7mtVuqShRJ2vZi9V4yQssllkFVVhE129LMwY3y1slRxSPYmz3gaf46qkFzBLALCOR8I9byNsSXJWYowhbXqklw~~</t>
-  </si>
-  <si>
-    <t>xS_86ubMTwOBm-P1abQcSLrYdNGZfdek3-EpzQEODGaV72Gst7tQ0irz0ZLkMmvYAi4Xmn69RmMswRQstBSOCcDSsrGZvdYRA4yLVw6kx-57z2ljhTaFaLGlkEjwFlhrSYP482BA6bU3PX9scA6P8KB1c2D_L8oNW5weBmxui2NVSwTh</t>
-  </si>
-  <si>
-    <t>Kg0Js5QeuKW5A-h1Sac4LOJc4wAPD_j-appprj_Gvq3w9hY9Izh3-eksRAQHzEC7znj3EBZQcVcQJgkdkCO1WwiuCrwhmkyZKXtRqKYvS9WXaaDfD8VI1ZYKNAtkZOqmuca0TVYYZPZnhvdpd9Hqqc6RmjNIIT--f4RdEs-9UOK4</t>
-  </si>
-  <si>
-    <t>wECygG4o9vrvf-31Xc0xdLTqnerBsN_PAZJWaDYhrbv8-8WFCX0FgaZBg2rGGCED4jigRIgkpT3fndwr5ugnt_r0YYLr-RyDY3Ja7cVAUWPwUywC1CB7Z_K_QO6xATgYnA6UVTJKAe8R3SVo2tMBbw_OIFafcgRcGZIEMn710fsou8g~</t>
+    <t>0oJFzLCtO452O-O14gQmByv0TXd1dFofGdNr2dAt-xlTBCFlx-cudGiyWRfBX4Zgxb32MsMckEOcrEY04VuTmdw0-S9oQUVe45Zs4kqDevOKEx5j6pEikxI_iRf_TRpzTmyr00SvKDxhFg~~</t>
+  </si>
+  <si>
+    <t>TVRp-z8IX52I9-71C-mTDYHgNCG6wpOqqyY0bRdfXeyr3A2SJyCH3yZMRFqqu7c81v0vFpHGEOSv6rL-nePHIW6TLRqVLzg4UjdsRvIV5lTfo4gm5EuxptQHQcr5OKOofabM7T0caaCI</t>
+  </si>
+  <si>
+    <t>oa6UGU-DfDcFU-U1mXrxdkWgurn2Vr4iOr87ZyV6kau0s3oof-qvvb_w9xw2dpDbvJkZ9ddkEijnWC9Oqtjq9tSl62jBviWJGjDbdySJfC2t1-Rz-yQe30p-rislryJj4g3yatRpfw~~</t>
+  </si>
+  <si>
+    <t>z0SGWmhE5lfvf-u19S7BQsI7f09Das11DMl7Ed0hHj6T6itDhow6PJrHXRFrzTkzqXITS8kL1o7CzyLAtQuxbnr90KDeWxDZT4o1fWTkrr0RL_kzXNi1ROMjlD3ZSM2lHJiNoDCp5IoikKPVwFs20CTsjjU4sUeVYDT1omzh7XIbkez4mg~~</t>
+  </si>
+  <si>
+    <t>KHCMRTgduMuPJ-F1N4bw0_fB_o33OlA8QIx6JyQ5fWYf1CN5KiqY2MjbHjmBB_K0aDQbbd5SLBf8Gdwi-KlenwlOl0BcLRWVjCkLonK1vFrWDlZ42gTPxDsVaRJSXUw6pKDo9LNhhQ~~</t>
+  </si>
+  <si>
+    <t>xvvCAEVgDlSnT-q1A_VI1aQNfevdmh-4245WbEhIXMw7VSvXVY0Gj7-kG0yxach3eCdujDg-7EYbi0qpcTIvjO7Fapbn_x2G_6lLbgAiL7itJznUD9VoVPmSVmeUVpCsTKAAp2cJ</t>
+  </si>
+  <si>
+    <t>bMhDTzm6vhXA7-g1m97NnZwfBQN3C27WnNuJw__IC3M1y7IDQDDzXwkfPwAfpIF63I7Cd0WDvWChVlIgi4ohTmDALf9adCrfzLMWfnBswcBO7P1EWUnR2k3XtMD74iGZwnicTQpoAXk~</t>
+  </si>
+  <si>
+    <t>TieDFRQro7dI1-l1rlXUHjg_a91Vrtin2LI6WcUJkViWD5mE3rYZdw8wp8G2FkpUzLVS0Y5U0cfONeje_cLDIl8YZ1ddXLpKa5FyR_1hiizQJDUyIgIDJPlbctIEeVOMN81W</t>
+  </si>
+  <si>
+    <t>MVrnb4YdEOXIi-T1jfcXJptva1wdsPYlYG2UWgp8pkZAOhF7XbpxeaQdj7n4g2aqqst8RcTxsV2cQ6_dYJ-0KTD8WudcWlVy7yyHlPlyMyyTuMyLudLoV1gPUjki4YRNq7yArIyqHEnd</t>
+  </si>
+  <si>
+    <t>7ZvcHY6Mzb6s1-o12zQqz1k7ORy8cM8B2cYZQsJ2l8nRPMsFND35CD_T7Eqsxt_cCUlKOUv-Rr10MMNMn9G2jzsRA8nx_67A_qA2wE4kuAQPPDLyCm6egtHeniIt2JalGQSO86iTVN_ZkA~~</t>
+  </si>
+  <si>
+    <t>tTAHbJysS5UAq-31pMvsygd5om5UZkxDdDIpaWpehS07VKOwtccZYzznH2yWSvTWZEsTNa9kSUcmGOq2AFqODeRhlcCkiR5xwVmJJDPQmqfXf55wklJg6WUep32JvaBqZNzZUb95ecY~</t>
+  </si>
+  <si>
+    <t>6ngn3TQnv7rFe-S1uiJ2aNvUM-CbnAKBMC7f6m5PyuP6UYIKa82pLl7BRMnI_tw4KufRZvmXyidToNjj0Ppzr5HYTR_Bv14XH-tXlobo6i_sCBXRxafFRmh-Rd5RB_tCzT0Bzz2Q</t>
+  </si>
+  <si>
+    <t>DK6DyFp8QmrJ_-115uLVVIIKvtctemzQsLvUgnCVowG1BMrChOFBUuMxJT-YUR58JuT39ahO-js-o_dzEtNGB2kL8-sX3jJsnt7O8F-O2-HB8yXWcCqMBkYe4YMDXFVjAbJ1IJ4epA~~</t>
+  </si>
+  <si>
+    <t>ShgNKu0Mt5jzq--1o_YRploXmNIUOJJSvi3pcZmqtStShm06BZfBsmJ1G1bv0mp5AV3i7WuNnJS59eQwZY6uTfKiPd_28eF7EYmyQA5J24S0rNtSGcAJB4OwjGI-Xsiyop3vsnf74w~~</t>
+  </si>
+  <si>
+    <t>vYx7r4Nb5c6S4-Q14gisTU1YLnCkWr6k3zXewRUjKHeB5XIPs63TT5n72SeTXpMJwNEXNAOlk-ikI7uIDfKYMiTDrJqrtBt_gSCKTE_5i2biKOq3YPrCHWTZ3BY-Tu78Wqh4AOkMCQ~~</t>
+  </si>
+  <si>
+    <t>H34q63dLDf3jf-j1lr51OmCNWhaOHFmRZFy_Fe2GkDJWRdpxb13CoaLluIPyAizS-D50NqKq9BPs1i7QZ_Bgo7bHPYnan1ddUK4G1vTlUVUdptaplPp7pZkZ9VBLC8GMkuU_Thy-imU~</t>
+  </si>
+  <si>
+    <t>bU9Hx5LfUyasd-G1gzBQafzeq1wbcwWBXfHFxrqc_Wp8Wm6TQgEdZn5-m-l8bPzeoWOPoq67P0nUFogphpMVmg3OLNPFFdaArMwraGLSg7J0RpI1NqZgIkQy6_1phBuIZ4VZBKgn</t>
+  </si>
+  <si>
+    <t>KGIRSYgrCRigC-C1rhZZ__GDqLrJtJgiN1mP-ylsGYF1mAFbVNsTiiut6QolLGHK2tVXukwgD1zyoFS7ZkH63v6sTQll8nCbt4JTKNdnR2RtneFB_22HrOUu4Bot5Fw09NwpItxHJw~~</t>
+  </si>
+  <si>
+    <t>WLdn1KbV3VYQ9-i1_KjtewOveA9-adhRMnka8rxIVYP-BWKdaMtN-zeo_ETbU9F81tWAr8qs4QpO3oy5d_56nH44KYo8lELdF_Ym-kJnytcJCSHyWrDlBHXVJ0KtMc8oJ8DuWWEiDg~~</t>
+  </si>
+  <si>
+    <t>N5CjrkgA_j03O-P1D7PysDXAgVKyJh6ioBOiFTyoNoJ6WeUaHhUPfcleQBxVgfj0cZrjE66sRVEqAMSAnGeMA4ygzTTbSqszwwLTZXhHzYBVqlmywSetlcaQ_Ud79Q4ZLcBk5hjMhxo~</t>
+  </si>
+  <si>
+    <t>AoPI0AdhIN8e8-K1gGlIqEaearRu_htRQeNr7a6wOLaKAkyB8yAYtXXg5XWWHRz-_nbKLDrtsdtf1pV5Bk7R5dZb0ciWvo7dv3R3iU34GyuJZGSrM-vXHRwVg1irDwmbCReiag56Wlhx</t>
+  </si>
+  <si>
+    <t>hXiD4fwjRhZlB-N1AZHSNi6U0lbcjg4W-6FXZ1y3U20q38eNRTYvvqOexcK9xgcO6Bnfxcgwz7ctAD_AktNqE6jumowwmyeBa13jYmbZrtTKn8J5kMCivIrlYFAnKdbMfmWvNGd2MQ~~</t>
+  </si>
+  <si>
+    <t>A6lYXzd7AM3jM-u1ZeYXp3jC0BPq3-Gn8-2DaPYnji-P6yzwUjJqXCdkc7GZ_Y19_GYEb0ZjVgdNo-Yboslf99XKVn4mURn18MVVw66XbN6r3GHl_-k2RFEmKuyANSTbUrn2OheRDZU~</t>
+  </si>
+  <si>
+    <t>04VBDxWdKbJcI-q1bRWRq7Bn3QxqGFQVXI4n6th_kulRK-bF5phfmN8eMF3dNR7gRHnhAjPtHuCBQDXkAPePFcPooHq56nKLorbpoTVthg7c0FN2nrtTRweWqqgP5Lria2BoY2kR</t>
+  </si>
+  <si>
+    <t>fSsclo1d9mRtg-T1XdDg_Z1QGIy_JnKJHxcX0EUdgfg_gr1ADojOikrrXUIJBR7A2i3ejCTTRgr51wjVd8PrGQEuGTKpdlb63S3a05F67Y-vSzCjSOlqmfQyPcrQJC_mrbqNN4QHQw~~</t>
+  </si>
+  <si>
+    <t>XQMCvbjZhEcWH-v104fCNaEz-NBjqYPDSQYylTLUD9UKel8mW5Jfxgb2w5vmNZdAlKDtDQ9IeNf2J-C0N5xWwKoW92rwsnyqb5uVbt9oOogZSU0-di5W88AfPwEml5f103iAD4k1bc8~</t>
+  </si>
+  <si>
+    <t>kvWDaKgyGNkQd-E13Rt2pulHSj26XvLu2Uo1wOEJnLdLe7-GxS2Tv4qBJVQuNNe6ajXKl-KEvuo17npaATODPiCmCtJDEK0qUSqIQRGpC1vYc78m8kmm5QL_NWll8L96K4dDfHQRuA~~</t>
+  </si>
+  <si>
+    <t>vDJD59YWfJrNH-c18abF-3g3Iz9uU67vpgPrYsCoMvPEW5h4X1PpJBHObJZpwdRBlEZPI8Tlb0GlWnorA4KftJHkljXV0rUYgmWdXNZ97Y7ezA8A36ozIgDKWWlOa2hQYPZOL7j49Vg~</t>
+  </si>
+  <si>
+    <t>5oFo1YZTl57kN-e1MTiP0CB3G92jA5RXULjmEIuF7jalmBsSszVYTbDxMqydd0KSOKBhKV7utgR9tqpVPAFc_69z4jwOfW8sMBGy62KqYUcd3u9qbyQcqktWd8t3aRFlL0NPRLZA</t>
+  </si>
+  <si>
+    <t>S4v0MbsCKxbeP-c1YcT68Hgo5lC1gjDivHa908HXJDHN7_WEgnPDvpP1qNv_s-9QTFjz0m0aykV5cudUEh-LQhU6F-E4ED6TT2smou_WcOsyDMNYA4Dtvgu9yI18001YEnb-PcsQAHE~</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/upload/avatar/20230426/607f1f3d68754fd025d6706ca2db41a4198269456ea9cd106bc2d4c053e952383916819920a9f64c_s.png</t>
   </si>
   <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220711/607f1f3d68754fd02ea0803a4f14039aa7fbd5e2e4ce01ae3a4fd94fd19f9d1230f41fc9e5880567_s.png</t>
+  </si>
+  <si>
     <t>https://img.bosszhipin.com/beijin/upload/avatar/20220310/607f1f3d68754fd020ea1f5dcb5af6dfd0b1f0d562ebc732a665c0d543c3f4e97c8d5f66c2c5c9d1_s.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220711/607f1f3d68754fd02ea0803a4f14039aa7fbd5e2e4ce01ae3a4fd94fd19f9d1230f41fc9e5880567_s.png</t>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20201012/c8b912e4aae76efb6f6f8454395d3b0fee905fc0f0a948d59247dd6a5bb27765_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210511/dce2e3aa3b475c4e2da3b48c68f2c1392e163313855c92b60efe62f93c34a0d5_s.png</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210318/2ec5ce5e5c0a96dc6187532311b298bc37422b1f4f8c69b4ea977f378421a249_s.png</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/upload/avatar/20230605/607f1f3d68754fd08e1a06c9f7b7214b9e49a774b2d5a17e0f85bd871005c2d38cf4040739393fa2_s.jpg</t>
   </si>
   <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20201216/d673c314a586af009f1b9637c8a5972222c69032910d540b72fe391def48570b_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230327/607f1f3d68754fd0a6406dcc3885f053ba2f62d78f503cb8c82a74fdd2381e339282f2aec1644ef1_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210227/3600d1b085bc283962bad11378d6bdc7ed8c3933707962c2da6006c7d15fa0f2_s.jpg</t>
+  </si>
+  <si>
     <t>https://img.bosszhipin.com/beijin/upload/avatar/20211111/607f1f3d68754fd0d041a41ee2cf66c3bb57925706fdc8b17fdba3bf426c0dfc176267de9e46b3cf_s.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210318/2ec5ce5e5c0a96dc6187532311b298bc37422b1f4f8c69b4ea977f378421a249_s.png</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210227/3600d1b085bc283962bad11378d6bdc7ed8c3933707962c2da6006c7d15fa0f2_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210511/dce2e3aa3b475c4e2da3b48c68f2c1392e163313855c92b60efe62f93c34a0d5_s.png</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20201216/d673c314a586af009f1b9637c8a5972222c69032910d540b72fe391def48570b_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230327/607f1f3d68754fd0a6406dcc3885f053ba2f62d78f503cb8c82a74fdd2381e339282f2aec1644ef1_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20201012/c8b912e4aae76efb6f6f8454395d3b0fee905fc0f0a948d59247dd6a5bb27765_s.jpg</t>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230916/607f1f3d68754fd0f7cac0fa1ac9559e01defdf7a07ae536b77ba45c0b5e1e1f0abfc92036ce018e_s.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210923/607f1f3d68754fd045440b1ef6a04f1a5f5478a80baea8dd29a79ae35a7fef17bcd091e30f47ce5a_s.png</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/useravatar/20170518/4ac97e475abd8b5f64186b623547774811d4ba904adeff1be10bd2da3e555997_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230907/607f1f3d68754fd088bdbb1ac49c9502bdc961c6862299cc067cfe0ba046f112c38a384e4e2cb2bb_s.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220113/607f1f3d68754fd0b2e695d6f519dcaa61eb473ef9cae7b752a7b309dbe62e43ca3e9b71c79e7282_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220804/607f1f3d68754fd09028b50bdd41e34a0db5ced36be7227afa800daf82ce257d72583a91e6139814_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20200928/275cc97efa3607f698bb1db2283d148a62777339b7fa0fb0236ba0a0222daab3_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220331/607f1f3d68754fd0ec27ded3f65f9160d11015956865142e075466377716ac3f8e21c6d2afad232f_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/boss/avatar/avatar_10.png</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230519/607f1f3d68754fd0f4880e11328a7c2a0e0e42a75b372ccb22ff8733a9a66d9ffb4a9345844af4a2_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230125/607f1f3d68754fd008b6d8ca42ed8be6c9c275d332c5f98d887144efd27e976f5fa159e3dfa9e843_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210517/572b05dd4a75b290b7ff7bb1c82abd5e74f5fc58cb8236d4494bffcb34e8c8b2_s.jpg</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/boss/avatar/avatar_3.png</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230519/607f1f3d68754fd0f4880e11328a7c2a0e0e42a75b372ccb22ff8733a9a66d9ffb4a9345844af4a2_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230125/607f1f3d68754fd008b6d8ca42ed8be6c9c275d332c5f98d887144efd27e976f5fa159e3dfa9e843_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20210923/607f1f3d68754fd045440b1ef6a04f1a5f5478a80baea8dd29a79ae35a7fef17bcd091e30f47ce5a_s.png</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20211125/607f1f3d68754fd0ea6b22ad31a1debd5608cd1ea1ef7b3fe202235b677beacbacc22e514624059f_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230916/607f1f3d68754fd0f7cac0fa1ac9559e01defdf7a07ae536b77ba45c0b5e1e1f0abfc92036ce018e_s.jpg.webp</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/tmp/20210202/4029b95052754d70bec91c5a814081fc6d23945534a0cc45995045c0fef7eadb_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20231010/607f1f3d68754fd0d5197adbe2ea49a15544060b884601599ebe7da00d403791bee311da9e318ded_s.jpg.webp</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220804/607f1f3d68754fd09028b50bdd41e34a0db5ced36be7227afa800daf82ce257d72583a91e6139814_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230905/607f1f3d68754fd0f19dbdcb66dae0a14c5cc1d4f50ae3f9b6452805d03290ee41242d7ee79a3f88_s.jpg.webp</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220414/607f1f3d68754fd09659e0cedbc8502b8b14e4b2623641ce5ccf36ba757b7766c81c9bc6604d88b4_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/boss/avatar/avatar_12.png</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230704/607f1f3d68754fd0adf35d2fedbee436ddfbee5213e183c6a90990fe15910607a90d2887af68c59b_s.jpg.webp</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20220113/607f1f3d68754fd0b2e695d6f519dcaa61eb473ef9cae7b752a7b309dbe62e43ca3e9b71c79e7282_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/boss/avatar/avatar_7.png</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230217/607f1f3d68754fd0c5fbcf68bb67f847dc4d67d1479bf5c480f1d542c6c6d8b1824d72ba90de0bcb_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230717/607f1f3d68754fd03a8c0c6c628ac30f7f8f92b10f4658a06965c12c5c5923d1699894da3a66f437_s.png.webp</t>
+    <t>https://img.bosszhipin.com/boss/avatar/avatar_2.png</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230704/607f1f3d68754fd0d6074a707acc4b93365011711843127b9e49359d06f66e3821081257bcc83c14_s.jpg.webp</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230814/607f1f3d68754fd075190747be926c8399002bf99d2ec89aeda6aa26baea74454d8b52dfc6a0d8a1_s.png.webp</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/useravatar/20190318/2d00e15575d5b94cc99856ccef22e556a58981dd08ab2bfac863c03124301305_s.jpg</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/mcs/useravatar/20171205/8804073e4c5948b8fd9235b5ef0fb902c7220ea318cea771c598aef898f57c22_s.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/upload/avatar/20230704/607f1f3d68754fd0d6074a707acc4b93365011711843127b9e49359d06f66e3821081257bcc83c14_s.jpg.webp</t>
+    <t>https://img.bosszhipin.com/beijin/mcs/useravatar/20191225/832c5a482104c8631d26d129fc32820ccfcd208495d565ef66e7dff9f98764da_s.jpg</t>
   </si>
   <si>
     <t>0fee4c55e1102d1e0n1_29m5GVRY</t>
   </si>
   <si>
+    <t>78fb083f690569530nBz2du5EFBY</t>
+  </si>
+  <si>
     <t>481c87981a14c9381HFz3tW8GVA~</t>
   </si>
   <si>
-    <t>78fb083f690569530nBz2du5EFBY</t>
+    <t>905ef71d48e156080nR509u_F1JW</t>
+  </si>
+  <si>
+    <t>86e1e702c9a3a30f0nZ72tW4GFY~</t>
+  </si>
+  <si>
+    <t>a1fc9497d6fe032503dz39S8EVU~</t>
   </si>
   <si>
     <t>48742a58a4da485b0XFy2N6-GA~~</t>
   </si>
   <si>
+    <t>5a7ae16a8e734dcc1XR-39m9GFA~</t>
+  </si>
+  <si>
+    <t>71e8ab5f702355471HZ83Nq-F1c~</t>
+  </si>
+  <si>
+    <t>7fd690c401aa31261nR_29-0EVtY</t>
+  </si>
+  <si>
     <t>2b5893c8f7d62dba0n183N26FlA~</t>
   </si>
   <si>
-    <t>a1fc9497d6fe032503dz39S8EVU~</t>
-  </si>
-  <si>
-    <t>7fd690c401aa31261nR_29-0EVtY</t>
-  </si>
-  <si>
-    <t>86e1e702c9a3a30f0nZ72tW4GFY~</t>
-  </si>
-  <si>
-    <t>5a7ae16a8e734dcc1XR-39m9GFA~</t>
-  </si>
-  <si>
-    <t>71e8ab5f702355471HZ83Nq-F1c~</t>
-  </si>
-  <si>
-    <t>905ef71d48e156080nR509u_F1JW</t>
+    <t>2217e65593edcce11nV_3dm_GFA~</t>
+  </si>
+  <si>
+    <t>3d58b573236fc4191nV829W0GVU~</t>
+  </si>
+  <si>
+    <t>78ba557894228e0f1XR-0tq7FlU~</t>
+  </si>
+  <si>
+    <t>6f4f6485def59c2303192925F1M~</t>
+  </si>
+  <si>
+    <t>9790d73345e2970c1nR73Nq1E1tT</t>
+  </si>
+  <si>
+    <t>411e83478e5c9f170HN72du9GFs~</t>
+  </si>
+  <si>
+    <t>98135ebf1c177ee31Hx52N6_GFc~</t>
+  </si>
+  <si>
+    <t>321f690e540c756f1Xxz29S6F1U~</t>
+  </si>
+  <si>
+    <t>36200ca837878dcc03x_39i9FVU~</t>
+  </si>
+  <si>
+    <t>a495bffb5f1b2c8803d-2ty8EFE~</t>
+  </si>
+  <si>
+    <t>78ccb93fa75307ed3nJ72dq9EFc~</t>
+  </si>
+  <si>
+    <t>a14eeaa3cefec16a0Xdy39W9FQ~~</t>
   </si>
   <si>
     <t>2a32b05202b0ad0c0XZ93Ni-EFVU</t>
   </si>
   <si>
-    <t>a495bffb5f1b2c8803d-2ty8EFE~</t>
-  </si>
-  <si>
-    <t>78ccb93fa75307ed3nJ72dq9EFc~</t>
-  </si>
-  <si>
-    <t>3d58b573236fc4191nV829W0GVU~</t>
-  </si>
-  <si>
-    <t>0b5b5f1260892f760X172d20GA~~</t>
-  </si>
-  <si>
-    <t>2217e65593edcce11nV_3dm_GFA~</t>
-  </si>
-  <si>
-    <t>17e5e296afeb3ee11nR63dy5E1NS</t>
-  </si>
-  <si>
-    <t>88ac2144be676d140nF42N-5FlFR</t>
-  </si>
-  <si>
-    <t>411e83478e5c9f170HN72du9GFs~</t>
-  </si>
-  <si>
-    <t>bcee10ddbafa823e1Hx73Nq_F1Q~</t>
-  </si>
-  <si>
-    <t>b497bb9f9bf4813a1nN73di5</t>
-  </si>
-  <si>
-    <t>3695cb3d37958d3c1HRy2d20EFE~</t>
-  </si>
-  <si>
-    <t>8bf9b47cdd56ba421nR80ty6EFpX</t>
-  </si>
-  <si>
-    <t>9790d73345e2970c1nR73Nq1E1tT</t>
-  </si>
-  <si>
-    <t>a88d6708b0e58e050nxy3di_FVVV</t>
-  </si>
-  <si>
-    <t>e9b3b9e7836527fa0Xd429i0FA~~</t>
-  </si>
-  <si>
-    <t>a9a9fb7b127a11630nR43d6-FVpX</t>
+    <t>fa9d369783daa50e1HZ-29W1EVU~</t>
+  </si>
+  <si>
+    <t>7cdcd2ee26da81f90H142Ny6GVc~</t>
+  </si>
+  <si>
+    <t>efc54657362a300d1Hx739W5F1o~</t>
+  </si>
+  <si>
+    <t>b5702e6abb6ca5081XNy29u_GVM~</t>
   </si>
   <si>
     <t>6778212df6075f4d1Xx43t60GFA~</t>
   </si>
   <si>
-    <t>7cdcd2ee26da81f90H142Ny6GVc~</t>
+    <t>32d04445d0d2229633By2ty8E1I~</t>
   </si>
   <si>
     <t>魏子钧</t>
   </si>
   <si>
+    <t>关女士</t>
+  </si>
+  <si>
     <t>常女士</t>
   </si>
   <si>
-    <t>关女士</t>
+    <t>刘清辰</t>
+  </si>
+  <si>
+    <t>刘浩楠</t>
+  </si>
+  <si>
+    <t>郭女士</t>
   </si>
   <si>
     <t>高女士</t>
   </si>
   <si>
+    <t>张女士</t>
+  </si>
+  <si>
+    <t>邓女士</t>
+  </si>
+  <si>
+    <t>梁先生</t>
+  </si>
+  <si>
     <t>崔丽</t>
   </si>
   <si>
-    <t>郭女士</t>
-  </si>
-  <si>
-    <t>梁先生</t>
-  </si>
-  <si>
-    <t>刘浩楠</t>
-  </si>
-  <si>
-    <t>张女士</t>
-  </si>
-  <si>
-    <t>邓女士</t>
-  </si>
-  <si>
-    <t>刘清辰</t>
+    <t>李慧</t>
+  </si>
+  <si>
+    <t>刘女士</t>
+  </si>
+  <si>
+    <t>艾俊风</t>
+  </si>
+  <si>
+    <t>杨梦莹</t>
+  </si>
+  <si>
+    <t>周女士</t>
+  </si>
+  <si>
+    <t>孙女士</t>
+  </si>
+  <si>
+    <t>刘佳</t>
+  </si>
+  <si>
+    <t>赵晓志</t>
+  </si>
+  <si>
+    <t>王颖</t>
+  </si>
+  <si>
+    <t>锁先生</t>
+  </si>
+  <si>
+    <t>卢静</t>
+  </si>
+  <si>
+    <t>徐女士</t>
   </si>
   <si>
     <t>陈一嫚</t>
   </si>
   <si>
-    <t>锁先生</t>
-  </si>
-  <si>
-    <t>卢静</t>
-  </si>
-  <si>
-    <t>刘女士</t>
-  </si>
-  <si>
-    <t>李雪玢</t>
-  </si>
-  <si>
-    <t>李慧</t>
-  </si>
-  <si>
     <t>赵女士</t>
   </si>
   <si>
-    <t>沈女士</t>
-  </si>
-  <si>
-    <t>孙女士</t>
-  </si>
-  <si>
-    <t>徐女士</t>
-  </si>
-  <si>
-    <t>耿女士</t>
-  </si>
-  <si>
-    <t>柳先生</t>
-  </si>
-  <si>
-    <t>王女士</t>
-  </si>
-  <si>
-    <t>周女士</t>
-  </si>
-  <si>
-    <t>杨庆钊</t>
-  </si>
-  <si>
-    <t>杨女士</t>
+    <t>高先生</t>
+  </si>
+  <si>
+    <t>王新</t>
   </si>
   <si>
     <t>马先生</t>
   </si>
   <si>
+    <t>杨立泽</t>
+  </si>
+  <si>
     <t>Hr</t>
   </si>
   <si>
+    <t>hr</t>
+  </si>
+  <si>
     <t>招聘者</t>
   </si>
   <si>
-    <t>hr</t>
+    <t>经理</t>
+  </si>
+  <si>
+    <t>招聘专员</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
   <si>
     <t>HRBP</t>
@@ -523,379 +535,364 @@
     <t>人事经理</t>
   </si>
   <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>招聘专员</t>
-  </si>
-  <si>
-    <t>经理</t>
+    <t>Recruiter</t>
+  </si>
+  <si>
+    <t>区域人事</t>
+  </si>
+  <si>
+    <t>文旅事业部总经理</t>
   </si>
   <si>
     <t>人事总监</t>
   </si>
   <si>
-    <t>Recruiter</t>
-  </si>
-  <si>
-    <t>招聘经理</t>
-  </si>
-  <si>
-    <t>行政人事部经理</t>
-  </si>
-  <si>
-    <t>猎头顾问</t>
-  </si>
-  <si>
-    <t>人力资源总监</t>
-  </si>
-  <si>
-    <t>人事区域经理</t>
+    <t>人事</t>
+  </si>
+  <si>
+    <t>招聘团队Leader</t>
+  </si>
+  <si>
+    <t>HRM</t>
   </si>
   <si>
     <t>总经理</t>
   </si>
   <si>
-    <t>人事</t>
+    <t>法人</t>
   </si>
   <si>
     <t>27a454904eafd2c51HVy3968FFFX</t>
   </si>
   <si>
+    <t>3b446c17288155c01HZ70tu5FVdV</t>
+  </si>
+  <si>
     <t>9316b44e56a7fc4b1HZ70926F1NT</t>
   </si>
   <si>
-    <t>3b446c17288155c01HZ70tu5FVdV</t>
-  </si>
-  <si>
-    <t>dd17d8619590c0c41nF50t69ElFQ</t>
+    <t>2ee34204faa95b831HV_2t66ElVV</t>
+  </si>
+  <si>
+    <t>9009bb78043a5c0f1HZ53926FlZV</t>
+  </si>
+  <si>
+    <t>19d9d8306a6c1a881HZ53Ny7FldR</t>
+  </si>
+  <si>
+    <t>4ac0655e4b184e8a1HR539q5E1pV</t>
+  </si>
+  <si>
+    <t>613d948500bf93e41HZ-2Ny5FlBU</t>
+  </si>
+  <si>
+    <t>ffb3d53992bb25a91HVy2Nm1FVpZ</t>
+  </si>
+  <si>
+    <t>712676609c15107e1HZ52N-1EVRX</t>
   </si>
   <si>
     <t>c95d2ab285bf1c011n182Nu6EldW</t>
   </si>
   <si>
-    <t>19d9d8306a6c1a881HZ53Ny7FldR</t>
-  </si>
-  <si>
-    <t>712676609c15107e1HZ52N-1EVRX</t>
-  </si>
-  <si>
-    <t>9009bb78043a5c0f1HZ53926FlZV</t>
-  </si>
-  <si>
-    <t>613d948500bf93e41HZ-2Ny5FlBU</t>
-  </si>
-  <si>
-    <t>ffb3d53992bb25a91HVy2Nm1FVpZ</t>
-  </si>
-  <si>
-    <t>2ee34204faa95b831HV_2t66ElVV</t>
+    <t>9eba920be9e5e2b21HJ629i9FlU~</t>
+  </si>
+  <si>
+    <t>94eb106e6d0be7981HZ409W0FlVT</t>
+  </si>
+  <si>
+    <t>0ff71b5641a757381HV63N28ElJS</t>
+  </si>
+  <si>
+    <t>133f3f80163a67be1X160tS1GVtY</t>
+  </si>
+  <si>
+    <t>f7dfcfe15a5a7f2a1XFz0tS_FlNY</t>
+  </si>
+  <si>
+    <t>4a6af04fac61dcc01HRy3dm1ElZX</t>
+  </si>
+  <si>
+    <t>b342eb488ec06eb71X1_0tq1E1U~</t>
+  </si>
+  <si>
+    <t>e849d36b9ce4aa701XR_3Ni0FVJS</t>
+  </si>
+  <si>
+    <t>99788d2210cfc5f71XN-2tq0F1JS</t>
+  </si>
+  <si>
+    <t>c60ac104b26eea3d1XF43du1EFpX</t>
+  </si>
+  <si>
+    <t>fc1751caab9480bb1HZ-2tW4EFtU</t>
+  </si>
+  <si>
+    <t>a7ac313dd9e529271nF_2di6GVtS</t>
   </si>
   <si>
     <t>8cc3874daacd48731HZ-29S4GVdR</t>
   </si>
   <si>
-    <t>c60ac104b26eea3d1XF43du1EFpX</t>
-  </si>
-  <si>
-    <t>fc1751caab9480bb1HZ-2tW4EFtU</t>
-  </si>
-  <si>
-    <t>94eb106e6d0be7981HZ409W0FlVT</t>
-  </si>
-  <si>
-    <t>27b220e8c1d223741HR52Nq5FlNX</t>
-  </si>
-  <si>
-    <t>9eba920be9e5e2b21HJ629i9FlU~</t>
-  </si>
-  <si>
-    <t>029a1be24e799ddd1HZ-3dy4FVVX</t>
-  </si>
-  <si>
-    <t>71fca2f6f5a4b32b1XN_09--GFJQ</t>
-  </si>
-  <si>
-    <t>4a6af04fac61dcc01HRy3dm1ElZX</t>
-  </si>
-  <si>
-    <t>5d006abbdf856a051HV-0tq0GFFS</t>
-  </si>
-  <si>
-    <t>f40734c09fc66ea51HZ-39u0FVpY</t>
-  </si>
-  <si>
-    <t>e5e95223d09696b61HV_3N2-ElNX</t>
-  </si>
-  <si>
-    <t>b116a58dcce43cc51HZ-2t6_EFtU</t>
-  </si>
-  <si>
-    <t>f7dfcfe15a5a7f2a1XFz0tS_FlNY</t>
-  </si>
-  <si>
-    <t>4cde00fcce805fbd1Xx739S8FVFX</t>
-  </si>
-  <si>
-    <t>0dc841c2f501b1131XZ-3d-8GFBU</t>
-  </si>
-  <si>
-    <t>074db08d580402dd1HZ53dq4FFFY</t>
+    <t>e3426423db6746f91HZ62920EFRV</t>
+  </si>
+  <si>
+    <t>6822aaaf667dedf41X1_29m-GFdR</t>
+  </si>
+  <si>
+    <t>dc68574dae2eba8e1HZ73tu_FFdZ</t>
+  </si>
+  <si>
+    <t>1ed672cf8defff8d1HV72NW7GVZT</t>
   </si>
   <si>
     <t>8fb559ff7834087f1nFy2t64GFc~</t>
   </si>
   <si>
-    <t>6822aaaf667dedf41X1_29m-GFdR</t>
+    <t>e0227d670020743f1nB-3d-1FVFY</t>
   </si>
   <si>
     <t>广告策划（实习生、应届生、有经验者均可）</t>
   </si>
   <si>
+    <t>广告策划-快消</t>
+  </si>
+  <si>
     <t>广告策划助理</t>
   </si>
   <si>
-    <t>广告策划-快消</t>
-  </si>
-  <si>
-    <t>游戏广告创意策划</t>
+    <t>广告创意策划</t>
+  </si>
+  <si>
+    <t>广告策划-豪华汽车方向</t>
+  </si>
+  <si>
+    <t>B站广告策划（食饮）</t>
+  </si>
+  <si>
+    <t>海外游戏广告创意策划*(J10092)</t>
+  </si>
+  <si>
+    <t>商业广告策划 J68417</t>
+  </si>
+  <si>
+    <t>广告创意策划【可接受应届生】</t>
   </si>
   <si>
     <t>广告策划</t>
   </si>
   <si>
-    <t>B站广告策划（食饮）</t>
-  </si>
-  <si>
-    <t>广告创意策划【可接受应届生】</t>
-  </si>
-  <si>
-    <t>广告策划-豪华汽车方向</t>
-  </si>
-  <si>
-    <t>商业广告策划 J68417</t>
-  </si>
-  <si>
-    <t>广告创意策划</t>
+    <t>广告策划文案</t>
+  </si>
+  <si>
+    <t>营销策划岗位（亚太区域）</t>
+  </si>
+  <si>
+    <t>广告学徒工</t>
+  </si>
+  <si>
+    <t>广告策划(J11312)</t>
+  </si>
+  <si>
+    <t>广告策划师</t>
+  </si>
+  <si>
+    <t>多媒体展厅策划</t>
+  </si>
+  <si>
+    <t>广告策划专员</t>
   </si>
   <si>
     <t>品牌广告策划(J10606)</t>
   </si>
   <si>
-    <t>广告策划专员</t>
-  </si>
-  <si>
-    <t>营销策划岗位（亚太区域）</t>
-  </si>
-  <si>
-    <t>广告策划实习生</t>
-  </si>
-  <si>
-    <t>广告策划文案</t>
-  </si>
-  <si>
-    <t>短视频广告策划</t>
-  </si>
-  <si>
-    <t>资深广告策划</t>
-  </si>
-  <si>
-    <t>广告策划(J11312)</t>
-  </si>
-  <si>
-    <t>广告创意策划（策划总监）</t>
-  </si>
-  <si>
-    <t>（实习岗）广告创意文案</t>
-  </si>
-  <si>
-    <t>短视频制作广告宣传编导</t>
-  </si>
-  <si>
     <t>广告渠道经理</t>
   </si>
   <si>
-    <t>6h3r5eM2hoA.search.1</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.2</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.3</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.4</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.5</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.6</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.7</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.8</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.9</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.10</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.11</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.12</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.13</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.14</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.15</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.16</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.17</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.18</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.19</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.20</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.21</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.22</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.23</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.24</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.25</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.26</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.27</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.28</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.29</t>
-  </si>
-  <si>
-    <t>6h3r5eM2hoA.search.30</t>
+    <t>CCTV-5 广告策划经理</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.1</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.2</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.3</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.4</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.5</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.6</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.7</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.8</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.9</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.10</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.11</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.12</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.13</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.14</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.15</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.16</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.17</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.18</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.19</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.20</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.21</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.22</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.23</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.24</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.25</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.26</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.27</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.28</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.29</t>
+  </si>
+  <si>
+    <t>66YZy0ZfEvE.search.30</t>
   </si>
   <si>
     <t>6-11K</t>
   </si>
   <si>
+    <t>25-50K·16薪</t>
+  </si>
+  <si>
     <t>230-280元/天</t>
   </si>
   <si>
-    <t>25-50K·16薪</t>
-  </si>
-  <si>
-    <t>15-30K</t>
+    <t>13-20K</t>
+  </si>
+  <si>
+    <t>15-30K·15薪</t>
+  </si>
+  <si>
+    <t>10-15K·14薪</t>
+  </si>
+  <si>
+    <t>15-30K·16薪</t>
+  </si>
+  <si>
+    <t>11-20K</t>
+  </si>
+  <si>
+    <t>10-14K</t>
   </si>
   <si>
     <t>15-25K</t>
   </si>
   <si>
-    <t>15-30K·15薪</t>
-  </si>
-  <si>
-    <t>10-14K</t>
-  </si>
-  <si>
-    <t>15-30K·16薪</t>
-  </si>
-  <si>
-    <t>11-20K</t>
-  </si>
-  <si>
-    <t>13-20K</t>
+    <t>5-8K</t>
+  </si>
+  <si>
+    <t>30-50K·15薪</t>
+  </si>
+  <si>
+    <t>5-6K</t>
+  </si>
+  <si>
+    <t>13-24K·13薪</t>
+  </si>
+  <si>
+    <t>11-18K·13薪</t>
+  </si>
+  <si>
+    <t>20-30K·14薪</t>
+  </si>
+  <si>
+    <t>10-15K</t>
+  </si>
+  <si>
+    <t>12-20K</t>
+  </si>
+  <si>
+    <t>18-35K</t>
   </si>
   <si>
     <t>15-30K·14薪</t>
   </si>
   <si>
-    <t>10-15K</t>
-  </si>
-  <si>
-    <t>12-20K</t>
-  </si>
-  <si>
-    <t>30-50K·15薪</t>
-  </si>
-  <si>
-    <t>100-110元/天</t>
-  </si>
-  <si>
-    <t>5-8K</t>
-  </si>
-  <si>
     <t>8-12K</t>
   </si>
   <si>
-    <t>25-35K</t>
-  </si>
-  <si>
-    <t>20-30K·14薪</t>
-  </si>
-  <si>
-    <t>15-20K·13薪</t>
-  </si>
-  <si>
-    <t>7-12K·13薪</t>
-  </si>
-  <si>
-    <t>150-300元/天</t>
-  </si>
-  <si>
-    <t>11-18K·13薪</t>
-  </si>
-  <si>
-    <t>7-10K·13薪</t>
-  </si>
-  <si>
-    <t>12-18K·13薪</t>
-  </si>
-  <si>
-    <t>10-15K·13薪</t>
+    <t>13-25K</t>
+  </si>
+  <si>
+    <t>15-22K</t>
+  </si>
+  <si>
+    <t>10-12K·13薪</t>
   </si>
   <si>
     <t>6-12K</t>
   </si>
   <si>
-    <t>13-25K</t>
+    <t>5-10K</t>
   </si>
   <si>
     <t>['经验不限', '本科']</t>
   </si>
   <si>
+    <t>['3-5年', '本科']</t>
+  </si>
+  <si>
     <t>['5天/周', '3个月', '本科']</t>
   </si>
   <si>
-    <t>['3-5年', '本科']</t>
+    <t>['经验不限', '学历不限']</t>
+  </si>
+  <si>
+    <t>['在校/应届', '本科']</t>
   </si>
   <si>
     <t>['1-3年', '本科']</t>
@@ -904,112 +901,109 @@
     <t>['1年以内', '本科']</t>
   </si>
   <si>
-    <t>['经验不限', '学历不限']</t>
+    <t>['在校/应届', '学历不限']</t>
+  </si>
+  <si>
+    <t>['5-10年', '本科']</t>
   </si>
   <si>
     <t>['3-5年', '学历不限']</t>
   </si>
   <si>
-    <t>['4天/周', '3个月', '本科']</t>
+    <t>['1-3年', '大专']</t>
   </si>
   <si>
     <t>['3-5年', '大专']</t>
   </si>
   <si>
-    <t>['5-10年', '本科']</t>
-  </si>
-  <si>
-    <t>['4天/周', '3个月', '大专']</t>
-  </si>
-  <si>
     <t>['微博/微信广告', '广告策划', '产品广告语', '音视频脚本']</t>
   </si>
   <si>
+    <t>['有策划经验', '策划经理经验', '4A广告公司经验', '广告策划', '平台方or品牌方经验']</t>
+  </si>
+  <si>
     <t>['信息流广告', '品牌广告', 'ae执行']</t>
   </si>
   <si>
-    <t>['有策划经验', '策划经理经验', '4A广告公司经验', '广告策划', '平台方or品牌方经验']</t>
-  </si>
-  <si>
-    <t>['游戏广告']</t>
+    <t>['电商广告', '视频/直播广告', '4A广告公司经验', '整合营销策略', '创意物料', '创意文案']</t>
+  </si>
+  <si>
+    <t>['企业内部职位', '线上', '线下']</t>
+  </si>
+  <si>
+    <t>['电商广告']</t>
+  </si>
+  <si>
+    <t>['一般企业（甲方）', '文娱/游戏', '创意能力', '英语可作为工作语言', '数据分析能力']</t>
+  </si>
+  <si>
+    <t>['有策划经验', '品牌营销', '整合营销', '商业策划']</t>
+  </si>
+  <si>
+    <t>['图文广告', '4A广告公司经验']</t>
+  </si>
+  <si>
+    <t>['信息流广告', '女性向游戏', '模拟经营类游戏']</t>
   </si>
   <si>
     <t>['乙方经验']</t>
   </si>
   <si>
-    <t>['电商广告']</t>
-  </si>
-  <si>
-    <t>['信息流广告', '女性向游戏', '模拟经营类游戏']</t>
-  </si>
-  <si>
-    <t>['企业内部职位', '线上', '线下']</t>
-  </si>
-  <si>
-    <t>['有策划经验', '品牌营销', '整合营销', '商业策划']</t>
-  </si>
-  <si>
-    <t>['图文广告', '4A广告公司经验']</t>
-  </si>
-  <si>
-    <t>['电商广告', '视频/直播广告', '4A广告公司经验', '整合营销策略', '创意物料', '创意文案']</t>
+    <t>['广告创意', '公关', '活动策划']</t>
+  </si>
+  <si>
+    <t>['文娱/游戏', '营销策划及执行']</t>
+  </si>
+  <si>
+    <t>['雕刻', '焊接', '物料制作/安装', '喷绘', '广告/传播专业']</t>
+  </si>
+  <si>
+    <t>['线上', '有策划经验', '广告传媒专业', '长视频', '短视频']</t>
+  </si>
+  <si>
+    <t>['广告片', '影视策划', '短视频', '视频策划', '文案', '广告媒介代理商/服务商']</t>
+  </si>
+  <si>
+    <t>['线上', '线下', '有策划经验', '4A广告公司经验', '企业内部职位', '通案', '招商', 'IP']</t>
+  </si>
+  <si>
+    <t>['活动策划', '广告创意']</t>
+  </si>
+  <si>
+    <t>['4A广告公司', '乙方经验']</t>
+  </si>
+  <si>
+    <t>['展馆策划', '多媒体展厅', '新媒体艺术']</t>
+  </si>
+  <si>
+    <t>['汽车广告创意', '乙方经验', '视听广告', '媒体广告', '汽车宣传活动']</t>
+  </si>
+  <si>
+    <t>['图文广告']</t>
+  </si>
+  <si>
+    <t>['广告', '快消品', '广告创意']</t>
   </si>
   <si>
     <t>['创意提案', '品牌策划与推广', '行业分析报告']</t>
   </si>
   <si>
-    <t>['汽车广告创意', '乙方经验', '视听广告', '媒体广告', '汽车宣传活动']</t>
-  </si>
-  <si>
-    <t>['图文广告']</t>
-  </si>
-  <si>
-    <t>['文娱/游戏', '营销策划及执行']</t>
-  </si>
-  <si>
-    <t>['户外广告']</t>
-  </si>
-  <si>
-    <t>['广告创意', '公关', '活动策划']</t>
-  </si>
-  <si>
-    <t>['企业/自有品牌']</t>
-  </si>
-  <si>
-    <t>['有策划经验', '广告传媒专业']</t>
-  </si>
-  <si>
-    <t>['线上', '线下', '有策划经验', '4A广告公司经验', '企业内部职位', '通案', '招商', 'IP']</t>
-  </si>
-  <si>
-    <t>['创意热店', '互联网客户', '创意文案']</t>
-  </si>
-  <si>
-    <t>['4A广告公司经验', '广告传媒专业', '策划经理经验']</t>
-  </si>
-  <si>
-    <t>['广告文案', '品牌策划', '公关媒介代理商/服务商', '4A广告公司经验', '整合营销策划']</t>
-  </si>
-  <si>
-    <t>['公司内部职位', '视频/直播广告', '音频广告', '图文广告', '广告策划', '音视频脚本', '中文/广告相关专业', '制作过爆款文案']</t>
-  </si>
-  <si>
-    <t>['广告片', '影视策划', '短视频', '视频策划', '文案', '广告媒介代理商/服务商']</t>
-  </si>
-  <si>
-    <t>['4A广告公司经验']</t>
-  </si>
-  <si>
-    <t>['品牌策划', '品牌全案', '乙方经验', '内容营销', '电商广告', '4A广告公司']</t>
-  </si>
-  <si>
-    <t>['财经', '短视频平台', '抖音/快手平台', '微信渠道', '视频', '图文', '音/视频剪辑能力', '网感好', '快速涨粉', '广告编导策划', '宣传片编导制作', '脚本撰写编写']</t>
+    <t>['4A广告公司经验', '企业/自有品牌', '公关媒介代理商/服务商']</t>
+  </si>
+  <si>
+    <t>['个人客户开发', '渠道关系维护', '具有互联网从业经验']</t>
+  </si>
+  <si>
+    <t>['CCTV5', '体育营销', '电视广告']</t>
+  </si>
+  <si>
+    <t>['公司内部职位', '广告策划', '参与竞标', '文案策划创意']</t>
   </si>
   <si>
     <t>['市场策划', '广告策划', '媒介']</t>
   </si>
   <si>
-    <t>['个人客户开发', '渠道关系维护', '具有互联网从业经验']</t>
+    <t>['PR', 'PS', 'AE', '美术设计专业', '手绘基础好', '公关媒介代理商/服务商', '视听广告', '视频/直播广告', '企业/自有品牌', '电商广告']</t>
   </si>
   <si>
     <t>经验不限</t>
@@ -1018,6 +1012,9 @@
     <t>3-5年</t>
   </si>
   <si>
+    <t>在校/应届</t>
+  </si>
+  <si>
     <t>1-3年</t>
   </si>
   <si>
@@ -1030,9 +1027,6 @@
     <t>5天/周</t>
   </si>
   <si>
-    <t>4天/周</t>
-  </si>
-  <si>
     <t>3个月</t>
   </si>
   <si>
@@ -1051,10 +1045,16 @@
     <t>朝阳区</t>
   </si>
   <si>
+    <t>海淀区</t>
+  </si>
+  <si>
     <t>东城区</t>
   </si>
   <si>
-    <t>海淀区</t>
+    <t>顺义区</t>
+  </si>
+  <si>
+    <t>丰台区</t>
   </si>
   <si>
     <t>房山区</t>
@@ -1063,487 +1063,487 @@
     <t>四惠东</t>
   </si>
   <si>
+    <t>亚运村</t>
+  </si>
+  <si>
     <t>高碑店</t>
   </si>
   <si>
-    <t>亚运村</t>
+    <t>大望路</t>
+  </si>
+  <si>
+    <t>望京</t>
+  </si>
+  <si>
+    <t>西北旺</t>
+  </si>
+  <si>
+    <t>苏州桥</t>
+  </si>
+  <si>
+    <t>朝外</t>
   </si>
   <si>
     <t>前门</t>
   </si>
   <si>
-    <t>望京</t>
-  </si>
-  <si>
-    <t>朝外</t>
-  </si>
-  <si>
-    <t>大望路</t>
-  </si>
-  <si>
-    <t>西北旺</t>
-  </si>
-  <si>
-    <t>苏州桥</t>
+    <t>三元桥</t>
+  </si>
+  <si>
+    <t>CBD</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>后沙峪</t>
+  </si>
+  <si>
+    <t>南磨房</t>
+  </si>
+  <si>
+    <t>鲁谷</t>
+  </si>
+  <si>
+    <t>双桥</t>
+  </si>
+  <si>
+    <t>朝阳大悦城</t>
+  </si>
+  <si>
+    <t>酒仙桥</t>
   </si>
   <si>
     <t>大山子</t>
   </si>
   <si>
-    <t>双桥</t>
-  </si>
-  <si>
-    <t>朝阳大悦城</t>
-  </si>
-  <si>
-    <t>慈云寺</t>
-  </si>
-  <si>
-    <t>798</t>
-  </si>
-  <si>
-    <t>常营</t>
-  </si>
-  <si>
-    <t>CBD</t>
-  </si>
-  <si>
-    <t>西三旗</t>
-  </si>
-  <si>
-    <t>建国门内</t>
-  </si>
-  <si>
-    <t>广渠门</t>
+    <t>朝阳门</t>
+  </si>
+  <si>
+    <t>长阳</t>
+  </si>
+  <si>
+    <t>世贸天阶</t>
+  </si>
+  <si>
+    <t>百子湾</t>
   </si>
   <si>
     <t>万柳</t>
   </si>
   <si>
-    <t>长阳</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[8]</t>
-  </si>
-  <si>
     <t>1e0466ca3b2fa3d41XB629u-FVA~</t>
   </si>
   <si>
+    <t>e57e6ccdcd0e71850Xx-2N-9Eg~~</t>
+  </si>
+  <si>
     <t>a5189d31c64769ea0X1z09-1</t>
   </si>
   <si>
-    <t>e57e6ccdcd0e71850Xx-2N-9Eg~~</t>
+    <t>8eff85da1dc5c2651nZ40965GVM~</t>
+  </si>
+  <si>
+    <t>7d01ce6cfe2022030HJ409y-</t>
+  </si>
+  <si>
+    <t>7cf08ef4b0f688c103V52tQ~</t>
   </si>
   <si>
     <t>1a3c39d7de92f7e21nV53t69EFA~</t>
   </si>
   <si>
+    <t>ab9fdc6f043679990HY~</t>
+  </si>
+  <si>
+    <t>90645958926e5e1e1HRz39i8GVM~</t>
+  </si>
+  <si>
+    <t>84de521f349608551nF93920E1o~</t>
+  </si>
+  <si>
     <t>f79a5ee3c48585530nd63tW-EQ~~</t>
   </si>
   <si>
-    <t>7cf08ef4b0f688c103V52tQ~</t>
-  </si>
-  <si>
-    <t>84de521f349608551nF93920E1o~</t>
-  </si>
-  <si>
-    <t>7d01ce6cfe2022030HJ409y-</t>
-  </si>
-  <si>
-    <t>ab9fdc6f043679990HY~</t>
-  </si>
-  <si>
-    <t>90645958926e5e1e1HRz39i8GVM~</t>
-  </si>
-  <si>
-    <t>8eff85da1dc5c2651nZ40965GVM~</t>
+    <t>ad0b1de0ab85affd1XJ_3dq6</t>
+  </si>
+  <si>
+    <t>96eac17fed77c8c61nJ43N66</t>
+  </si>
+  <si>
+    <t>7baab22c8da2efbc03B_3N-5</t>
+  </si>
+  <si>
+    <t>e0ef92fd2969745b1XB_3N-5</t>
+  </si>
+  <si>
+    <t>05f4f93d50d5dff433d-09--</t>
+  </si>
+  <si>
+    <t>6cd250243c0c51681nRz3dw~</t>
+  </si>
+  <si>
+    <t>bd32dc73e0c309d91nx93di9EQ~~</t>
+  </si>
+  <si>
+    <t>dca4dde0e25dfe9b03d72Nq_</t>
+  </si>
+  <si>
+    <t>6dfad56326a9ba4c1nN-2d21FA~~</t>
+  </si>
+  <si>
+    <t>a5e401e4bd3fedc81nV_39q5FVE~</t>
+  </si>
+  <si>
+    <t>932e9eec6109aff303V92N2-</t>
+  </si>
+  <si>
+    <t>b1c441fdf2dc1bfa1nF73Ny7E1U~</t>
   </si>
   <si>
     <t>230e0b5fd991e8a30nN72Q~~</t>
   </si>
   <si>
-    <t>a5e401e4bd3fedc81nV_39q5FVE~</t>
-  </si>
-  <si>
-    <t>932e9eec6109aff303V92N2-</t>
-  </si>
-  <si>
-    <t>96eac17fed77c8c61nJ43N66</t>
-  </si>
-  <si>
-    <t>aac808316590df5e0XZ82960</t>
-  </si>
-  <si>
-    <t>ad0b1de0ab85affd1XJ_3dq6</t>
-  </si>
-  <si>
-    <t>099e120affe6bbce1HNz3Ny9GA~~</t>
-  </si>
-  <si>
-    <t>1a8f9075255775e11nd92tw~</t>
-  </si>
-  <si>
-    <t>6cd250243c0c51681nRz3dw~</t>
-  </si>
-  <si>
-    <t>b8082117f2c3535d0Hd53NW6Ew~~</t>
-  </si>
-  <si>
-    <t>ea26e548190feb851XRy39m-F1Y~</t>
-  </si>
-  <si>
-    <t>7724eff9a060a1d91XR60969FVY~</t>
-  </si>
-  <si>
-    <t>df4e816ebe5ac87c1Xd52ti8F1U~</t>
-  </si>
-  <si>
-    <t>05f4f93d50d5dff433d-09--</t>
-  </si>
-  <si>
-    <t>76cb989b0e5bb43e0nR43tW6EQ~~</t>
-  </si>
-  <si>
-    <t>7f12446c64e758bc1nd52tW0FA~~</t>
-  </si>
-  <si>
-    <t>6c8fc7921c2e44b93nR72dy4FA~~</t>
+    <t>fc2e2755f7154b323nV829q7</t>
+  </si>
+  <si>
+    <t>7deec8f665c42e690XZz29-4EA~~</t>
+  </si>
+  <si>
+    <t>cfe20beee15b08561nZy3dq-</t>
+  </si>
+  <si>
+    <t>068f71cbb984821f0XB_0tS9FA~~</t>
   </si>
   <si>
     <t>5dfb337064dcad310nRy0ty1</t>
   </si>
   <si>
-    <t>7deec8f665c42e690XZz29-4EA~~</t>
+    <t>df141742afccbe3a0X190tS6Fw~~</t>
   </si>
   <si>
     <t>安思一</t>
   </si>
   <si>
+    <t>小红书</t>
+  </si>
+  <si>
     <t>有范儿科技</t>
   </si>
   <si>
-    <t>小红书</t>
+    <t>火神</t>
+  </si>
+  <si>
+    <t>北京字节跳动</t>
+  </si>
+  <si>
+    <t>哔哩哔哩-B站</t>
   </si>
   <si>
     <t>点点互动</t>
   </si>
   <si>
+    <t>百度</t>
+  </si>
+  <si>
+    <t>众成就</t>
+  </si>
+  <si>
+    <t>爱的番茄</t>
+  </si>
+  <si>
     <t>观塘尚然</t>
   </si>
   <si>
-    <t>哔哩哔哩-B站</t>
-  </si>
-  <si>
-    <t>爱的番茄</t>
-  </si>
-  <si>
-    <t>北京字节跳动</t>
-  </si>
-  <si>
-    <t>百度</t>
-  </si>
-  <si>
-    <t>众成就</t>
-  </si>
-  <si>
-    <t>火神</t>
+    <t>中广</t>
+  </si>
+  <si>
+    <t>FunPlus</t>
+  </si>
+  <si>
+    <t>爱飞翼</t>
+  </si>
+  <si>
+    <t>剧星传媒</t>
+  </si>
+  <si>
+    <t>和智传信</t>
+  </si>
+  <si>
+    <t>Keep</t>
+  </si>
+  <si>
+    <t>顺辰沅广告</t>
+  </si>
+  <si>
+    <t>掌中飞天</t>
+  </si>
+  <si>
+    <t>中理科技</t>
+  </si>
+  <si>
+    <t>北京光宇通达广告</t>
+  </si>
+  <si>
+    <t>北京掌上乐游科技</t>
+  </si>
+  <si>
+    <t>中博文创</t>
   </si>
   <si>
     <t>微店</t>
   </si>
   <si>
-    <t>北京光宇通达广告</t>
-  </si>
-  <si>
-    <t>北京掌上乐游科技</t>
-  </si>
-  <si>
-    <t>FunPlus</t>
-  </si>
-  <si>
-    <t>万达传媒</t>
-  </si>
-  <si>
-    <t>中广</t>
-  </si>
-  <si>
-    <t>漪珊服饰</t>
-  </si>
-  <si>
-    <t>某大型互联网公司</t>
-  </si>
-  <si>
-    <t>Keep</t>
-  </si>
-  <si>
-    <t>和势营销</t>
-  </si>
-  <si>
-    <t>很欧可</t>
-  </si>
-  <si>
-    <t>德吉</t>
-  </si>
-  <si>
-    <t>奈思德</t>
-  </si>
-  <si>
-    <t>和智传信</t>
-  </si>
-  <si>
-    <t>有时文创</t>
-  </si>
-  <si>
-    <t>凌亚世纪</t>
-  </si>
-  <si>
-    <t>厚德财通</t>
+    <t>海米</t>
+  </si>
+  <si>
+    <t>中科盛东</t>
+  </si>
+  <si>
+    <t>中视智扬</t>
+  </si>
+  <si>
+    <t>嘉汇传媒</t>
   </si>
   <si>
     <t>盖德英语</t>
   </si>
   <si>
-    <t>中科盛东</t>
+    <t>正格文化</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/icon/894ce6fa7e58d64d57e7f22d2f3a9d18afa7fcceaa24b8ea28f56f1bb14732c0.png</t>
   </si>
   <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/banner/841348999e14c333b318ba53d38533f4cfcd208495d565ef66e7dff9f98764da.jpg</t>
+  </si>
+  <si>
     <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20190415/66233d6d71d3b90565b8c2e673805bc512f8d88cc14ae0151b84535389237f0c.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/banner/841348999e14c333b318ba53d38533f4cfcd208495d565ef66e7dff9f98764da.jpg</t>
+    <t>https://img.bosszhipin.com/beijin/app/mobile/normal-0e3f1e4441a21d4874cece3a3d81f0fe.png</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20230811/7bf6f160950405e993d5441fb36ed39b6e0ceee2dc5889061408317c856c491f5c0c40aafab8d582.png.webp</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/bar/brand/41319.jpg</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20200910/ae40c68701cf7c6f28ff1e13c9b8f1476e702ce42117ec8b2ddf956aacf71a70_s.jpg</t>
   </si>
   <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/banner/00c9c1238ae2c986f3e7741be97a9669cfcd208495d565ef66e7dff9f98764da.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20231101/7bf6f160950405e9f933e43903c69c79feeb489ed73314f6c82a74fdd2381e339282f2aec1644ef1.png.webp</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210416/0c3ce419effe1d4cfc051ebc96819b384c9ee72b7380222861fac60b27f61581_s.jpg</t>
+  </si>
+  <si>
     <t>https://img.bosszhipin.com/beijin/upload/com/logo/20211029/7b5b554d84f9729c42e7aae1563f1eaaa87e95566cff19c375a1d293302658378e088448f78c94d8.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/bar/brand/41319.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210416/0c3ce419effe1d4cfc051ebc96819b384c9ee72b7380222861fac60b27f61581_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20230811/7bf6f160950405e993d5441fb36ed39b6e0ceee2dc5889061408317c856c491f5c0c40aafab8d582.png.webp</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/banner/00c9c1238ae2c986f3e7741be97a9669cfcd208495d565ef66e7dff9f98764da.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20231101/7bf6f160950405e9f933e43903c69c79feeb489ed73314f6c82a74fdd2381e339282f2aec1644ef1.png.webp</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/app/mobile/normal-0e3f1e4441a21d4874cece3a3d81f0fe.png</t>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20170416/9b78ee4311ddbc79dd615fa6160acf884b0e44030b23bea8a1211dac760ebd3d.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/banner/4a3db05432dcebf4cb7d7ba1f7713593cfcd208495d565ef66e7dff9f98764da.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20180607/499664d2d3a7b5fe756ece6bef44edb14f4254dc79fd835862388cfa24aa853f.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/banner/b9bc2bc7dcf4cc63876ac4e96118349fcfcd208495d565ef66e7dff9f98764da.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210121/d7ec6c7181b0b529c38db5cac6a0c558e19f3bcefb8b28fb746d9570244bd9d7_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20221104/7b5b554d84f9729c59eaed793c2b8acbd539ad6f0da6af4c8a9980b5b1f5b38095f7f5c12ad3d5d1.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20161204/a8ae9513416b243dc3dd3f1dc15877e138b8969831aa5449690843a60ade7f18.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20191014/a52daabf3df6f1364cb0c29c8e4fb47e109cc037fae74ea999b96c0ee41a76f9.png</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210506/943ebe4a794d22716305abcbf11af8f44e871600b4f93ba155344fcdb4cfb767_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20210406/41725d0431fb99cc4c8ae0962f871ece59db2bb55b1b1bc2fc7b66015175316c.jpg</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/mcs/bar/brand/5712.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210506/943ebe4a794d22716305abcbf11af8f44e871600b4f93ba155344fcdb4cfb767_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20210406/41725d0431fb99cc4c8ae0962f871ece59db2bb55b1b1bc2fc7b66015175316c.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/banner/4a3db05432dcebf4cb7d7ba1f7713593cfcd208495d565ef66e7dff9f98764da.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20230427/7bf6f160950405e9cf23a1f68a06799dd673b6efa6a85d27d1cff1daa4db8a604bda8dab0f25b7ec.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20170416/9b78ee4311ddbc79dd615fa6160acf884b0e44030b23bea8a1211dac760ebd3d.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20200409/e31561060723800f8da1225c7aa3f6aa9e63f1a9cd746a15f7352723224ca533_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/app/mobile/n-af8dd288f86448d9eaaf3a4b0fd60b27.png</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20221104/7b5b554d84f9729c59eaed793c2b8acbd539ad6f0da6af4c8a9980b5b1f5b38095f7f5c12ad3d5d1.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210220/5748effdfbf3028d16c733377d895ebc631e160cc5e5e8cb74b8908003f5127b_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20220622/7bf6f160950405e9785102e76f25aaa8fd0bae4286c9ffc2dc0095d647097ee14594b111b871f68f.jpg</t>
-  </si>
-  <si>
-    <t>https://c-res.zhipin.com/jrs/c213b3119d21fa1e661705bfbb772ca6.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20220930/7b5b554d84f9729c777e770c5f91c524ead77fe00ebf631822ca4e4e79087d0c7caf6673fcf4c566.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210121/d7ec6c7181b0b529c38db5cac6a0c558e19f3bcefb8b28fb746d9570244bd9d7_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20191024/fef0ff5380f71d35d4e46fc8b97fa2bfebe1fcd7549a147d393ac3119db2e530_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20190808/e6e687e73dcadfdb8b3fa1db9b56687791c613538bd3f2884bf75e7e3499cb19_s.jpg</t>
-  </si>
-  <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20210530/78a6a4cfb68d650daac2cf31f03ac7876f2d35674f21456710d1696bea76aa99.jpg</t>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20190307/a6d6aa5c453f7505fff6a3de2d5a937231ff364dee6df1db9ba82edf6f476d39.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20230209/7bf6f160950405e90862ffb236a786ed1a6b067d15bbb6d33dcda5c5eacccdf8804f490c610afe03.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20210220/75d70c16c7559d5258ac62fc96dcd1f747185f34619b79c2de37cbc5e5792e35_s.jpg</t>
+  </si>
+  <si>
+    <t>https://img.bosszhipin.com/beijin/upload/com/logo/20220506/7b5b554d84f9729c6b2bc4decd2ae5e571ddb2dca6e11320fdfc15269547c5162bfcce53e7b3bae0.jpg</t>
   </si>
   <si>
     <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20190522/9c79783aa3d19b44bb96f5b24a069019c7220ea318cea771c598aef898f57c22_s.jpg</t>
   </si>
   <si>
-    <t>https://img.bosszhipin.com/beijin/upload/com/workfeel/20230209/7bf6f160950405e90862ffb236a786ed1a6b067d15bbb6d33dcda5c5eacccdf8804f490c610afe03.jpg</t>
+    <t>https://img.bosszhipin.com/beijin/mcs/chatphoto/20191225/79568cdca3fd2be15e51567f1a1a485fada6bab0cdeb753b57a4fbf481135406_s.jpg</t>
+  </si>
+  <si>
+    <t>D轮及以上</t>
   </si>
   <si>
     <t>未融资</t>
   </si>
   <si>
-    <t>D轮及以上</t>
-  </si>
-  <si>
     <t>不需要融资</t>
   </si>
   <si>
     <t>已上市</t>
   </si>
   <si>
+    <t>B轮</t>
+  </si>
+  <si>
     <t>C轮</t>
   </si>
   <si>
-    <t>B轮</t>
-  </si>
-  <si>
     <t>互联网</t>
   </si>
   <si>
+    <t>电子商务</t>
+  </si>
+  <si>
     <t>广告营销</t>
   </si>
   <si>
-    <t>电子商务</t>
+    <t>广告/公关/会展</t>
+  </si>
+  <si>
+    <t>移动互联网</t>
   </si>
   <si>
     <t>游戏</t>
   </si>
   <si>
-    <t>广告/公关/会展</t>
-  </si>
-  <si>
-    <t>移动互联网</t>
-  </si>
-  <si>
-    <t>服装/纺织/皮革</t>
-  </si>
-  <si>
-    <t>媒体</t>
-  </si>
-  <si>
-    <t>计算机软件</t>
+    <t>其他行业</t>
+  </si>
+  <si>
+    <t>音乐/视频/阅读</t>
+  </si>
+  <si>
+    <t>文化/体育/娱乐</t>
   </si>
   <si>
     <t>培训机构</t>
   </si>
   <si>
+    <t>广播/影视</t>
+  </si>
+  <si>
     <t>20-99人</t>
   </si>
   <si>
+    <t>1000-9999人</t>
+  </si>
+  <si>
     <t>100-499人</t>
   </si>
   <si>
-    <t>1000-9999人</t>
+    <t>0-20人</t>
+  </si>
+  <si>
+    <t>10000人以上</t>
   </si>
   <si>
     <t>500-999人</t>
   </si>
   <si>
-    <t>10000人以上</t>
-  </si>
-  <si>
-    <t>0-20人</t>
-  </si>
-  <si>
     <t>['餐补', '五险一金']</t>
   </si>
   <si>
+    <t>['五险一金', '加班补助', '带薪年假', '餐补', '年终奖', '定期体检', '包吃']</t>
+  </si>
+  <si>
     <t>['节日福利', '补充医疗保险', '五险一金', '带薪年假', '员工旅游', '定期体检', '零食下午茶']</t>
   </si>
   <si>
-    <t>['五险一金', '加班补助', '带薪年假', '餐补', '年终奖', '定期体检', '包吃']</t>
-  </si>
-  <si>
-    <t>['零食下午茶', '定期体检', '交通补助', '股票期权', '员工旅游', '加班补助', '补充医疗保险', '年终奖', '五险一金', '带薪年假', '餐补', '节日福利']</t>
+    <t>['年终奖', '零食下午茶', '年度体检', '定期体检', '弹性工作制', '家属自选保险', '加班补助', '餐补', '家庭关爱假', '节假日加班费', '绩效奖金', '免费健身设施', '就近租房补贴', '五险一金', '补充医疗保险', '法定节假日三薪', '带薪年假', '餐饮及下午茶', '节日礼品', '意外险']</t>
+  </si>
+  <si>
+    <t>['全勤奖', '年终奖', '补充医疗保险', '定期体检', '五险一金', '带薪年假', '节日福利']</t>
+  </si>
+  <si>
+    <t>['交通补助', '年终奖', '五险一金', '加班补助', '定期体检', '节日福利', '员工旅游', '股票期权', '带薪年假', '补充医疗保险', '餐补', '零食下午茶']</t>
+  </si>
+  <si>
+    <t>['五险一金', '免费班车', '年终奖', '零食下午茶', '带薪年假', '节日福利', '娱乐健身', '通讯补贴', '住房补贴', '补充医疗保险', '餐补', '交通补助', '定期体检', '加班补助', '员工旅游']</t>
+  </si>
+  <si>
+    <t>['零食下午茶', '节日福利', '生日福利', '餐补', '带薪年假', '年终奖', '定期体检', '五险一金', '补充医疗保险']</t>
+  </si>
+  <si>
+    <t>['节日福利', '定期体检', '补充医疗保险', '股票期权', '年终奖', '五险一金', '带薪年假', '交通补助', '员工旅游', '零食下午茶', '加班补助']</t>
   </si>
   <si>
     <t>['全勤奖', '加班补助', '节日福利', '年终奖', '员工旅游', '餐补', '免费班车', '带薪年假', '五险一金', '零食下午茶']</t>
   </si>
   <si>
-    <t>['全勤奖', '年终奖', '补充医疗保险', '定期体检', '五险一金', '带薪年假', '节日福利']</t>
-  </si>
-  <si>
-    <t>['节日福利', '定期体检', '补充医疗保险', '股票期权', '年终奖', '五险一金', '带薪年假', '交通补助', '员工旅游', '零食下午茶', '加班补助']</t>
-  </si>
-  <si>
-    <t>['年终奖', '零食下午茶', '年度体检', '定期体检', '弹性工作制', '家属自选保险', '加班补助', '餐补', '家庭关爱假', '节假日加班费', '绩效奖金', '免费健身设施', '就近租房补贴', '五险一金', '补充医疗保险', '法定节假日三薪', '带薪年假', '餐饮及下午茶', '节日礼品', '意外险']</t>
-  </si>
-  <si>
-    <t>['五险一金', '免费班车', '年终奖', '零食下午茶', '带薪年假', '节日福利', '娱乐健身', '通讯补贴', '住房补贴', '补充医疗保险', '餐补', '交通补助', '定期体检', '加班补助', '员工旅游']</t>
-  </si>
-  <si>
-    <t>['零食下午茶', '节日福利', '生日福利', '餐补', '带薪年假', '年终奖', '定期体检', '五险一金', '补充医疗保险']</t>
+    <t>['节日福利', '年终奖', '股票期权', '带薪年假', '加班补助', '交通补助', '定期体检', '五险一金', '补充医疗保险', '零食下午茶', '员工旅游', '餐补']</t>
+  </si>
+  <si>
+    <t>['员工旅游', '生日福利', '高温补贴', '节日福利', '五险一金', '有无线网', '带薪年假', '定期体检', '保底工资']</t>
+  </si>
+  <si>
+    <t>['员工旅游', '通讯补贴', '五险一金', '餐补', '零食下午茶', '加班补助', '年终奖', '节日福利', '定期体检', '带薪年假']</t>
+  </si>
+  <si>
+    <t>['年终奖', '补充医疗保险', '带薪年假', '股票期权', '定期体检', '节日福利', '五险一金', '餐补']</t>
+  </si>
+  <si>
+    <t>['餐补', '节日福利', '通讯补贴', '加班补助', '年终奖', '住房补贴', '全勤奖']</t>
+  </si>
+  <si>
+    <t>['带薪年假', '员工旅游', '节日福利', '五险一金', '股票期权']</t>
+  </si>
+  <si>
+    <t>['交通补助', '五险一金', '带薪年假', '年终奖', '节日福利']</t>
+  </si>
+  <si>
+    <t>['股票期权', '节日福利', '五险一金']</t>
+  </si>
+  <si>
+    <t>['羽毛球', '股票期权', '节日福利', '底薪加提成', '带薪年假', '员工旅游', '年终奖', '健身卡', '五险一金', '零食下午茶', '定期体检', '绩效奖金', '团建聚餐']</t>
+  </si>
+  <si>
+    <t>['节日福利', '加班补助', '年终奖', '带薪年假', '五险一金', '全勤奖', '零食下午茶']</t>
   </si>
   <si>
     <t>['年终奖', '节日福利', '零食下午茶', '带薪年假', '餐补', '定期体检', '补充医疗保险', '股票期权', '员工旅游', '五险一金', '加班补助']</t>
   </si>
   <si>
-    <t>['股票期权', '节日福利', '五险一金']</t>
-  </si>
-  <si>
-    <t>['羽毛球', '股票期权', '节日福利', '底薪加提成', '带薪年假', '员工旅游', '年终奖', '健身卡', '五险一金', '零食下午茶', '定期体检', '绩效奖金', '团建聚餐']</t>
-  </si>
-  <si>
-    <t>['节日福利', '年终奖', '股票期权', '带薪年假', '加班补助', '交通补助', '定期体检', '五险一金', '补充医疗保险', '零食下午茶', '员工旅游', '餐补']</t>
-  </si>
-  <si>
-    <t>['通讯补贴', '节日福利', '生日福利', '定期体检', '年终奖', '餐补', '员工旅游', '带薪年假', '五险一金']</t>
-  </si>
-  <si>
-    <t>['五险一金']</t>
-  </si>
-  <si>
-    <t>['五险一金', '包吃', '定期体检', '补充医疗保险', '带薪年假', '补充医疗保险', '年终奖', '节日福利', '员工旅游', '弹性上下班']</t>
-  </si>
-  <si>
-    <t>['年终奖', '补充医疗保险', '带薪年假', '股票期权', '定期体检', '节日福利', '五险一金', '餐补']</t>
-  </si>
-  <si>
-    <t>['员工旅游', '定期体检', '年终奖', '五险一金', '团建聚餐', '带薪年假', '加班补助', '工龄奖', '节日福利', '零食下午茶']</t>
-  </si>
-  <si>
-    <t>['员工旅游', '带薪年假', '年终奖', '定期体检', '五险一金']</t>
-  </si>
-  <si>
-    <t>['五险一金', '定期体检', '年终奖', '带薪年假', '员工旅游', '节日福利']</t>
-  </si>
-  <si>
-    <t>['定期体检', '员工旅游', '带薪年假']</t>
-  </si>
-  <si>
-    <t>['员工旅游', '通讯补贴', '五险一金', '餐补', '零食下午茶', '加班补助', '年终奖', '节日福利', '定期体检', '带薪年假']</t>
-  </si>
-  <si>
-    <t>['有无线网', '员工旅游', '全勤奖', '五险一金', '年终奖', '团建聚餐', '生日福利', '节日福利', '带薪年假']</t>
-  </si>
-  <si>
-    <t>['节日福利', '员工旅游', '补充医疗保险', '节日福利', '定期体检', '带薪年假', '五险一金', '年终奖']</t>
-  </si>
-  <si>
-    <t>['年终奖', '带薪年假', '节日福利', '五险一金', '绩效奖金']</t>
+    <t>['五险一金', '节日福利', '补充医疗保险', '带薪年假', '餐补', '通讯补贴', '股票期权']</t>
+  </si>
+  <si>
+    <t>['24k大金牌', '带薪年假', '全勤奖', '零食下午茶', '五险一金', '年终奖', '生日福利', '节日福利', '定期体检', '团建聚餐', '工龄奖', '员工旅游', '餐补']</t>
+  </si>
+  <si>
+    <t>['年终奖', '五险一金', '带薪年假', '项目奖金', '员工旅游']</t>
   </si>
   <si>
     <t>['股票期权', '节日福利', '带薪年假', '全勤奖', '零食下午茶', '加班补助', '年终奖', '五险一金', '员工旅游']</t>
+  </si>
+  <si>
+    <t>['全勤奖', '带薪年假', '餐补', '节日福利', '员工旅游', '股票期权', '交通补助', '加班补助', '年终奖', '通讯补贴']</t>
   </si>
 </sst>
 </file>
@@ -2080,49 +2080,49 @@
         <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K2">
         <v>259072637</v>
       </c>
       <c r="L2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y2" t="s">
         <v>348</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG2">
         <v>1</v>
@@ -2164,22 +2164,22 @@
         <v>1698739187000</v>
       </c>
       <c r="AM2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AQ2" t="s">
         <v>467</v>
       </c>
       <c r="AR2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AS2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AT2">
         <v>100020</v>
@@ -2208,58 +2208,55 @@
         <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K3">
         <v>259072637</v>
       </c>
       <c r="L3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>303</v>
-      </c>
-      <c r="T3" t="s">
-        <v>337</v>
-      </c>
-      <c r="U3" t="s">
-        <v>339</v>
+        <v>301</v>
+      </c>
+      <c r="S3" t="s">
+        <v>331</v>
       </c>
       <c r="V3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y3" t="s">
         <v>349</v>
       </c>
       <c r="Z3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2277,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG3">
         <v>2</v>
@@ -2292,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>1701052320000</v>
+        <v>1700192491000</v>
       </c>
       <c r="AM3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AN3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AP3" t="s">
         <v>461</v>
@@ -2310,13 +2307,13 @@
         <v>468</v>
       </c>
       <c r="AR3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AS3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AT3">
-        <v>100004</v>
+        <v>100001</v>
       </c>
       <c r="AU3" t="b">
         <v>0</v>
@@ -2342,55 +2339,58 @@
         <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K4">
         <v>259072637</v>
       </c>
       <c r="L4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
-        <v>304</v>
-      </c>
-      <c r="S4" t="s">
-        <v>333</v>
+        <v>302</v>
+      </c>
+      <c r="T4" t="s">
+        <v>336</v>
+      </c>
+      <c r="U4" t="s">
+        <v>337</v>
       </c>
       <c r="V4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y4" t="s">
         <v>350</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG4">
         <v>3</v>
@@ -2423,16 +2423,16 @@
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>1700192491000</v>
+        <v>1701052320000</v>
       </c>
       <c r="AM4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AP4" t="s">
         <v>462</v>
@@ -2441,13 +2441,13 @@
         <v>469</v>
       </c>
       <c r="AR4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AS4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AT4">
-        <v>100001</v>
+        <v>100004</v>
       </c>
       <c r="AU4" t="b">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>139</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2482,19 +2482,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K5">
         <v>259072637</v>
       </c>
       <c r="L5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O5" t="s">
         <v>291</v>
@@ -2503,16 +2503,22 @@
         <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W5" t="s">
-        <v>343</v>
+        <v>341</v>
+      </c>
+      <c r="X5" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>349</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2533,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG5">
         <v>4</v>
@@ -2548,31 +2554,28 @@
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>1700737382000</v>
+        <v>1697219988000</v>
       </c>
       <c r="AM5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AN5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="AQ5" t="s">
         <v>470</v>
       </c>
       <c r="AR5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AS5" t="s">
-        <v>486</v>
+        <v>372</v>
       </c>
       <c r="AT5">
-        <v>100002</v>
+        <v>100101</v>
       </c>
       <c r="AU5" t="b">
         <v>0</v>
@@ -2598,49 +2601,49 @@
         <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K6">
         <v>259072637</v>
       </c>
       <c r="L6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="S6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y6" t="s">
         <v>351</v>
@@ -2664,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG6">
         <v>5</v>
@@ -2679,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1687174681000</v>
+        <v>1700826821000</v>
       </c>
       <c r="AM6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AP6" t="s">
         <v>463</v>
@@ -2697,13 +2700,13 @@
         <v>471</v>
       </c>
       <c r="AR6" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AS6" t="s">
         <v>487</v>
       </c>
       <c r="AT6">
-        <v>100101</v>
+        <v>100019</v>
       </c>
       <c r="AU6" t="b">
         <v>0</v>
@@ -2729,49 +2732,49 @@
         <v>141</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7">
         <v>259072637</v>
       </c>
       <c r="L7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="S7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y7" t="s">
         <v>352</v>
@@ -2795,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG7">
         <v>6</v>
@@ -2813,13 +2816,13 @@
         <v>1701066056000</v>
       </c>
       <c r="AM7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AN7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AO7" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AP7" t="s">
         <v>464</v>
@@ -2860,55 +2863,49 @@
         <v>142</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8">
         <v>259072637</v>
       </c>
       <c r="L8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="S8" t="s">
         <v>332</v>
       </c>
       <c r="V8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W8" t="s">
-        <v>343</v>
-      </c>
-      <c r="X8" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG8">
         <v>7</v>
@@ -2941,25 +2938,25 @@
         <v>0</v>
       </c>
       <c r="AL8">
-        <v>1700807402000</v>
+        <v>1697242168000</v>
       </c>
       <c r="AM8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AN8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AP8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AQ8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AR8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AS8" t="s">
         <v>489</v>
@@ -2991,7 +2988,7 @@
         <v>143</v>
       </c>
       <c r="G9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3000,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K9">
         <v>259072637</v>
       </c>
       <c r="L9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N9" t="s">
         <v>268</v>
@@ -3021,22 +3018,22 @@
         <v>1</v>
       </c>
       <c r="R9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="S9" t="s">
         <v>333</v>
       </c>
       <c r="V9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W9" t="s">
+        <v>341</v>
+      </c>
+      <c r="X9" t="s">
         <v>343</v>
       </c>
-      <c r="X9" t="s">
-        <v>344</v>
-      </c>
       <c r="Y9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -3057,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG9">
         <v>8</v>
@@ -3072,31 +3069,31 @@
         <v>0</v>
       </c>
       <c r="AL9">
-        <v>1700826821000</v>
+        <v>1701310714000</v>
       </c>
       <c r="AM9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AN9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AP9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AQ9" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="AR9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AS9" t="s">
         <v>490</v>
       </c>
       <c r="AT9">
-        <v>100019</v>
+        <v>100020</v>
       </c>
       <c r="AU9" t="b">
         <v>0</v>
@@ -3122,28 +3119,28 @@
         <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K10">
         <v>259072637</v>
       </c>
       <c r="L10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O10" t="s">
         <v>294</v>
@@ -3152,22 +3149,22 @@
         <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="S10" t="s">
         <v>334</v>
       </c>
       <c r="V10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W10" t="s">
+        <v>341</v>
+      </c>
+      <c r="X10" t="s">
         <v>343</v>
       </c>
-      <c r="X10" t="s">
-        <v>346</v>
-      </c>
       <c r="Y10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -3188,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG10">
         <v>9</v>
@@ -3203,31 +3200,31 @@
         <v>0</v>
       </c>
       <c r="AL10">
-        <v>1701310714000</v>
+        <v>1698657257000</v>
       </c>
       <c r="AM10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AN10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AP10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AQ10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AR10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AS10" t="s">
         <v>491</v>
       </c>
       <c r="AT10">
-        <v>100020</v>
+        <v>100101</v>
       </c>
       <c r="AU10" t="b">
         <v>0</v>
@@ -3253,16 +3250,16 @@
         <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K11">
         <v>259072637</v>
@@ -3271,34 +3268,34 @@
         <v>220</v>
       </c>
       <c r="M11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="V11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Y11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -3319,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG11">
         <v>10</v>
@@ -3334,31 +3331,31 @@
         <v>0</v>
       </c>
       <c r="AL11">
-        <v>1698657257000</v>
+        <v>1700807402000</v>
       </c>
       <c r="AM11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AP11" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AQ11" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AR11" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AS11" t="s">
         <v>492</v>
       </c>
       <c r="AT11">
-        <v>100101</v>
+        <v>100002</v>
       </c>
       <c r="AU11" t="b">
         <v>0</v>
@@ -3384,7 +3381,7 @@
         <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3393,43 +3390,43 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K12">
         <v>259072637</v>
       </c>
       <c r="L12" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="S12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V12" t="s">
+        <v>338</v>
+      </c>
+      <c r="W12" t="s">
         <v>341</v>
-      </c>
-      <c r="W12" t="s">
-        <v>343</v>
       </c>
       <c r="X12" t="s">
         <v>344</v>
       </c>
       <c r="Y12" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -3450,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG12">
         <v>11</v>
@@ -3465,25 +3462,28 @@
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>1697219988000</v>
+        <v>1687174681000</v>
       </c>
       <c r="AM12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN12" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>463</v>
       </c>
       <c r="AQ12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AR12" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AS12" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="AT12">
         <v>100101</v>
@@ -3512,52 +3512,52 @@
         <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K13">
         <v>259072637</v>
       </c>
       <c r="L13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="S13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y13" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG13">
         <v>12</v>
@@ -3593,31 +3593,31 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1701224070000</v>
+        <v>1680757254000</v>
       </c>
       <c r="AM13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AN13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AP13" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AQ13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AR13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AS13" t="s">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="AT13">
-        <v>100020</v>
+        <v>100004</v>
       </c>
       <c r="AU13" t="b">
         <v>0</v>
@@ -3643,52 +3643,52 @@
         <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K14">
         <v>259072637</v>
       </c>
       <c r="L14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O14" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="S14" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V14" t="s">
+        <v>339</v>
+      </c>
+      <c r="W14" t="s">
         <v>341</v>
       </c>
-      <c r="W14" t="s">
-        <v>343</v>
-      </c>
       <c r="X14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y14" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG14">
         <v>13</v>
@@ -3724,31 +3724,31 @@
         <v>0</v>
       </c>
       <c r="AL14">
-        <v>1680850128000</v>
+        <v>1700637216000</v>
       </c>
       <c r="AM14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AN14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AP14" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AQ14" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AR14" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AS14" t="s">
         <v>494</v>
       </c>
       <c r="AT14">
-        <v>100101</v>
+        <v>100002</v>
       </c>
       <c r="AU14" t="b">
         <v>0</v>
@@ -3774,55 +3774,49 @@
         <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K15">
         <v>259072637</v>
       </c>
       <c r="L15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="S15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W15" t="s">
-        <v>343</v>
-      </c>
-      <c r="X15" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -3840,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG15">
         <v>14</v>
@@ -3855,31 +3849,31 @@
         <v>0</v>
       </c>
       <c r="AL15">
-        <v>1701241167000</v>
+        <v>1700179757000</v>
       </c>
       <c r="AM15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AN15" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AP15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="AR15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AS15" t="s">
-        <v>495</v>
+        <v>372</v>
       </c>
       <c r="AT15">
-        <v>100019</v>
+        <v>100004</v>
       </c>
       <c r="AU15" t="b">
         <v>0</v>
@@ -3905,52 +3899,52 @@
         <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K16">
         <v>259072637</v>
       </c>
       <c r="L16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="S16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V16" t="s">
+        <v>338</v>
+      </c>
+      <c r="W16" t="s">
         <v>341</v>
       </c>
-      <c r="W16" t="s">
-        <v>343</v>
-      </c>
       <c r="X16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y16" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -3971,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG16">
         <v>15</v>
@@ -3986,31 +3980,31 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1700637216000</v>
+        <v>1691799999000</v>
       </c>
       <c r="AM16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AP16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AQ16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AR16" t="s">
         <v>479</v>
       </c>
       <c r="AS16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AT16">
-        <v>100002</v>
+        <v>100004</v>
       </c>
       <c r="AU16" t="b">
         <v>0</v>
@@ -4036,58 +4030,55 @@
         <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K17">
         <v>259072637</v>
       </c>
       <c r="L17" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O17" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>317</v>
-      </c>
-      <c r="T17" t="s">
+        <v>315</v>
+      </c>
+      <c r="S17" t="s">
+        <v>331</v>
+      </c>
+      <c r="V17" t="s">
         <v>338</v>
       </c>
-      <c r="U17" t="s">
-        <v>339</v>
-      </c>
-      <c r="V17" t="s">
-        <v>340</v>
-      </c>
       <c r="W17" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y17" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -4105,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG17">
         <v>16</v>
@@ -4120,31 +4111,31 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1700029628000</v>
+        <v>1698205679000</v>
       </c>
       <c r="AM17" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AN17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AP17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AQ17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AR17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AS17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AT17">
-        <v>100004</v>
+        <v>100101</v>
       </c>
       <c r="AU17" t="b">
         <v>0</v>
@@ -4170,7 +4161,7 @@
         <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -4179,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K18">
         <v>259072637</v>
@@ -4188,34 +4179,34 @@
         <v>225</v>
       </c>
       <c r="M18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W18" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X18" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y18" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -4236,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="AF18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG18">
         <v>17</v>
@@ -4251,31 +4242,31 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>1680757254000</v>
+        <v>1701256474000</v>
       </c>
       <c r="AM18" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN18" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AP18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AQ18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AR18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AS18" t="s">
-        <v>369</v>
+        <v>497</v>
       </c>
       <c r="AT18">
-        <v>100004</v>
+        <v>100020</v>
       </c>
       <c r="AU18" t="b">
         <v>0</v>
@@ -4301,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -4310,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19">
         <v>259072637</v>
@@ -4319,31 +4310,31 @@
         <v>226</v>
       </c>
       <c r="M19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N19" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="O19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V19" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Y19" t="s">
         <v>360</v>
@@ -4367,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG19">
         <v>18</v>
@@ -4382,31 +4373,31 @@
         <v>0</v>
       </c>
       <c r="AL19">
-        <v>1701415057000</v>
+        <v>1685406297000</v>
       </c>
       <c r="AM19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AN19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AP19" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AQ19" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="AR19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AS19" t="s">
         <v>498</v>
       </c>
       <c r="AT19">
-        <v>101003</v>
+        <v>100101</v>
       </c>
       <c r="AU19" t="b">
         <v>0</v>
@@ -4432,58 +4423,64 @@
         <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K20">
         <v>259072637</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O20" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="S20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V20" t="s">
+        <v>339</v>
+      </c>
+      <c r="W20" t="s">
+        <v>341</v>
+      </c>
+      <c r="X20" t="s">
         <v>342</v>
       </c>
-      <c r="W20" t="s">
-        <v>343</v>
+      <c r="Y20" t="s">
+        <v>361</v>
       </c>
       <c r="Z20">
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -4492,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AG20">
         <v>19</v>
@@ -4507,31 +4504,31 @@
         <v>0</v>
       </c>
       <c r="AL20">
-        <v>1696758522000</v>
+        <v>1687154903000</v>
       </c>
       <c r="AM20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN20" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AP20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AQ20" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AR20" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AS20" t="s">
         <v>499</v>
       </c>
       <c r="AT20">
-        <v>100020</v>
+        <v>100101</v>
       </c>
       <c r="AU20" t="b">
         <v>0</v>
@@ -4557,52 +4554,52 @@
         <v>155</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K21">
         <v>259072637</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O21" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="V21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W21" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X21" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Y21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -4623,7 +4620,7 @@
         <v>0</v>
       </c>
       <c r="AF21" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG21">
         <v>20</v>
@@ -4638,31 +4635,31 @@
         <v>0</v>
       </c>
       <c r="AL21">
-        <v>1701256474000</v>
+        <v>1693988552000</v>
       </c>
       <c r="AM21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AN21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AO21" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AP21" t="s">
         <v>462</v>
       </c>
       <c r="AQ21" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AR21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AS21" t="s">
         <v>500</v>
       </c>
       <c r="AT21">
-        <v>100020</v>
+        <v>100101</v>
       </c>
       <c r="AU21" t="b">
         <v>0</v>
@@ -4688,52 +4685,52 @@
         <v>156</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K22">
         <v>259072637</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N22" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O22" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="S22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="V22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W22" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X22" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y22" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4754,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="AF22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG22">
         <v>21</v>
@@ -4769,31 +4766,31 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>1698819679000</v>
+        <v>1680850128000</v>
       </c>
       <c r="AM22" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AN22" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AO22" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AP22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ22" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AR22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AS22" t="s">
         <v>501</v>
       </c>
       <c r="AT22">
-        <v>100004</v>
+        <v>100101</v>
       </c>
       <c r="AU22" t="b">
         <v>0</v>
@@ -4819,28 +4816,28 @@
         <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K23">
         <v>259072637</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N23" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="O23" t="s">
         <v>293</v>
@@ -4849,22 +4846,22 @@
         <v>1</v>
       </c>
       <c r="R23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="S23" t="s">
         <v>333</v>
       </c>
       <c r="V23" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y23" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4885,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="AF23" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG23">
         <v>22</v>
@@ -4900,19 +4897,19 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>1701342867000</v>
+        <v>1701241167000</v>
       </c>
       <c r="AM23" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AN23" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AO23" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AP23" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ23" t="s">
         <v>471</v>
@@ -4924,7 +4921,7 @@
         <v>502</v>
       </c>
       <c r="AT23">
-        <v>100101</v>
+        <v>100019</v>
       </c>
       <c r="AU23" t="b">
         <v>0</v>
@@ -4950,16 +4947,16 @@
         <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K24">
         <v>259072637</v>
@@ -4968,34 +4965,34 @@
         <v>222</v>
       </c>
       <c r="M24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O24" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="S24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="Y24" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -5016,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="AF24" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG24">
         <v>23</v>
@@ -5031,31 +5028,28 @@
         <v>0</v>
       </c>
       <c r="AL24">
-        <v>1701227762000</v>
+        <v>1680954042000</v>
       </c>
       <c r="AM24" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AN24" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AO24" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="AQ24" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AR24" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AS24" t="s">
         <v>503</v>
       </c>
       <c r="AT24">
-        <v>100101</v>
+        <v>101304</v>
       </c>
       <c r="AU24" t="b">
         <v>0</v>
@@ -5081,58 +5075,55 @@
         <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K25">
         <v>259072637</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O25" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="P25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>325</v>
-      </c>
-      <c r="T25" t="s">
+        <v>323</v>
+      </c>
+      <c r="S25" t="s">
+        <v>333</v>
+      </c>
+      <c r="V25" t="s">
         <v>338</v>
       </c>
-      <c r="U25" t="s">
-        <v>339</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
+        <v>341</v>
+      </c>
+      <c r="X25" t="s">
         <v>342</v>
       </c>
-      <c r="W25" t="s">
-        <v>343</v>
-      </c>
-      <c r="X25" t="s">
-        <v>344</v>
-      </c>
       <c r="Y25" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="Z25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -5150,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG25">
         <v>24</v>
@@ -5165,31 +5156,31 @@
         <v>0</v>
       </c>
       <c r="AL25">
-        <v>1701230271000</v>
+        <v>1701224070000</v>
       </c>
       <c r="AM25" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AN25" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AO25" s="2" t="s">
         <v>454</v>
       </c>
       <c r="AP25" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AQ25" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AR25" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AS25" t="s">
         <v>504</v>
       </c>
       <c r="AT25">
-        <v>100101</v>
+        <v>100020</v>
       </c>
       <c r="AU25" t="b">
         <v>0</v>
@@ -5212,10 +5203,10 @@
         <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -5224,28 +5215,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K26">
         <v>259072637</v>
       </c>
       <c r="L26" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M26" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N26" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="S26" t="s">
         <v>333</v>
@@ -5254,13 +5245,13 @@
         <v>340</v>
       </c>
       <c r="W26" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X26" t="s">
         <v>344</v>
       </c>
       <c r="Y26" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -5281,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG26">
         <v>25</v>
@@ -5296,22 +5287,22 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1698205679000</v>
+        <v>1700450971000</v>
       </c>
       <c r="AM26" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN26" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AO26" s="2" t="s">
         <v>455</v>
       </c>
       <c r="AP26" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AQ26" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AR26" t="s">
         <v>478</v>
@@ -5320,7 +5311,7 @@
         <v>505</v>
       </c>
       <c r="AT26">
-        <v>100101</v>
+        <v>100011</v>
       </c>
       <c r="AU26" t="b">
         <v>0</v>
@@ -5343,55 +5334,55 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K27">
         <v>259072637</v>
       </c>
       <c r="L27" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N27" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="P27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="S27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V27" t="s">
         <v>340</v>
       </c>
       <c r="W27" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X27" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y27" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -5412,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG27">
         <v>26</v>
@@ -5427,31 +5418,31 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1687565520000</v>
+        <v>1699411819000</v>
       </c>
       <c r="AM27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AN27" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AO27" s="2" t="s">
         <v>456</v>
       </c>
       <c r="AP27" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AR27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AS27" t="s">
-        <v>506</v>
+        <v>372</v>
       </c>
       <c r="AT27">
-        <v>100101</v>
+        <v>100004</v>
       </c>
       <c r="AU27" t="b">
         <v>0</v>
@@ -5474,55 +5465,55 @@
         <v>132</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K28">
         <v>259072637</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="M28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
       <c r="R28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="S28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="V28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X28" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y28" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -5543,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG28">
         <v>27</v>
@@ -5558,31 +5549,31 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>1701067708000</v>
+        <v>1700452844000</v>
       </c>
       <c r="AM28" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AN28" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO28" s="2" t="s">
         <v>457</v>
       </c>
       <c r="AP28" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AQ28" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AR28" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="AS28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AT28">
-        <v>100003</v>
+        <v>100004</v>
       </c>
       <c r="AU28" t="b">
         <v>0</v>
@@ -5605,55 +5596,55 @@
         <v>133</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K29">
         <v>259072637</v>
       </c>
       <c r="L29" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="P29">
         <v>1</v>
       </c>
       <c r="R29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="W29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="X29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y29" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -5674,7 +5665,7 @@
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG29">
         <v>28</v>
@@ -5689,19 +5680,19 @@
         <v>0</v>
       </c>
       <c r="AL29">
-        <v>1701228664000</v>
+        <v>1700439011000</v>
       </c>
       <c r="AM29" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AN29" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AO29" s="2" t="s">
         <v>458</v>
       </c>
       <c r="AP29" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AQ29" t="s">
         <v>475</v>
@@ -5710,10 +5701,10 @@
         <v>478</v>
       </c>
       <c r="AS29" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AT29">
-        <v>100021</v>
+        <v>100104</v>
       </c>
       <c r="AU29" t="b">
         <v>0</v>
@@ -5739,52 +5730,52 @@
         <v>163</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30">
         <v>259072637</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
       <c r="R30" t="s">
+        <v>328</v>
+      </c>
+      <c r="S30" t="s">
         <v>330</v>
       </c>
-      <c r="S30" t="s">
-        <v>332</v>
-      </c>
       <c r="V30" t="s">
+        <v>339</v>
+      </c>
+      <c r="W30" t="s">
         <v>341</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>343</v>
       </c>
-      <c r="X30" t="s">
-        <v>346</v>
-      </c>
       <c r="Y30" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -5805,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="AF30" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG30">
         <v>29</v>
@@ -5823,10 +5814,10 @@
         <v>1688794034000</v>
       </c>
       <c r="AM30" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AN30" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AO30" s="2" t="s">
         <v>459</v>
@@ -5838,10 +5829,10 @@
         <v>476</v>
       </c>
       <c r="AR30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AS30" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AT30">
         <v>100303</v>
@@ -5867,55 +5858,49 @@
         <v>135</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K31">
         <v>259072637</v>
       </c>
       <c r="L31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O31" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V31" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W31" t="s">
-        <v>343</v>
-      </c>
-      <c r="X31" t="s">
-        <v>347</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -5936,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AG31">
         <v>30</v>
@@ -5951,31 +5936,31 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>1699411819000</v>
+        <v>1685499030000</v>
       </c>
       <c r="AM31" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN31" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AO31" s="2" t="s">
         <v>460</v>
       </c>
       <c r="AP31" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AQ31" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AR31" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="AS31" t="s">
-        <v>369</v>
+        <v>509</v>
       </c>
       <c r="AT31">
-        <v>100004</v>
+        <v>100103</v>
       </c>
       <c r="AU31" t="b">
         <v>0</v>
